--- a/miniproject/template/Lectures/Lecture 10.xlsx
+++ b/miniproject/template/Lectures/Lecture 10.xlsx
@@ -37,10 +37,10 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Meaning （English）</t>
-  </si>
-  <si>
     <t>Meaning</t>
+  </si>
+  <si>
+    <t>Meaning（中文）</t>
   </si>
   <si>
     <t>level_2</t>
@@ -1815,10 +1815,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1883,9 +1883,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1895,21 +1894,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1937,8 +1921,45 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1953,22 +1974,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1982,15 +1988,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1998,7 +1998,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2012,9 +2012,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2053,13 +2053,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,31 +2107,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,25 +2155,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,61 +2179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,6 +2197,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2227,7 +2215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2306,15 +2306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2330,17 +2321,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2356,17 +2341,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2394,145 +2368,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2902,8 +2902,8 @@
   <sheetPr/>
   <dimension ref="A1:AA181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:X1"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91071428571429" defaultRowHeight="12.4"/>
@@ -3221,11 +3221,11 @@
       </c>
       <c r="J4" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="2"/>
@@ -3239,43 +3239,43 @@
       </c>
       <c r="O4" s="15" t="str">
         <f ca="1" t="shared" ref="O4:O67" si="13">IF(J4=1,CONCATENATE("L2",$F4),"")</f>
-        <v>L21001003</v>
+        <v/>
       </c>
       <c r="P4" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "The parents use the carrot and stick approach" ?</v>
+        <v/>
       </c>
       <c r="Q4" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R4" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S4" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T4" s="15" t="str">
         <f ca="1" t="shared" ref="T4:T67" si="14">IF(K4=1,CONCATENATE("L3",$F4),"")</f>
-        <v/>
+        <v>L31001003</v>
       </c>
       <c r="U4" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "The parents use the carrot and stick approach" ?</v>
       </c>
       <c r="V4" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W4" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X4" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y4" s="15" t="str">
         <f t="shared" si="11"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" ht="35" spans="1:27">
+    <row r="6" ht="24" spans="1:27">
       <c r="A6" s="9">
         <v>10</v>
       </c>
@@ -3405,11 +3405,11 @@
       </c>
       <c r="J6" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="15">
         <f t="shared" si="2"/>
@@ -3423,43 +3423,43 @@
       </c>
       <c r="O6" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001005</v>
+        <v/>
       </c>
       <c r="P6" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Let’s get down to the meat and potatoes" ?</v>
+        <v/>
       </c>
       <c r="Q6" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R6" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S6" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T6" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001005</v>
       </c>
       <c r="U6" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Let’s get down to the meat and potatoes" ?</v>
       </c>
       <c r="V6" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W6" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X6" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y6" s="15" t="str">
         <f t="shared" si="11"/>
@@ -3589,11 +3589,11 @@
       </c>
       <c r="J8" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="15">
         <f t="shared" si="2"/>
@@ -3607,43 +3607,43 @@
       </c>
       <c r="O8" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001007</v>
       </c>
       <c r="P8" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "She gave us a song and dance about why she was late. " ?</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R8" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S8" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T8" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001007</v>
+        <v/>
       </c>
       <c r="U8" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "She gave us a song and dance about why she was late. " ?</v>
+        <v/>
       </c>
       <c r="V8" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W8" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X8" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y8" s="15" t="str">
         <f t="shared" si="11"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="AA8" s="15"/>
     </row>
-    <row r="9" ht="35" spans="1:27">
+    <row r="9" ht="24" spans="1:27">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -3957,11 +3957,11 @@
       </c>
       <c r="J12" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="2"/>
@@ -3975,43 +3975,43 @@
       </c>
       <c r="O12" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001011</v>
       </c>
       <c r="P12" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "I want the terms spelled out in black and white" ?</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R12" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S12" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T12" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001011</v>
+        <v/>
       </c>
       <c r="U12" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I want the terms spelled out in black and white" ?</v>
+        <v/>
       </c>
       <c r="V12" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W12" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X12" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y12" s="15" t="str">
         <f t="shared" si="11"/>
@@ -4049,11 +4049,11 @@
       </c>
       <c r="J13" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="2"/>
@@ -4067,43 +4067,43 @@
       </c>
       <c r="O13" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001012</v>
+        <v/>
       </c>
       <c r="P13" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "You need to know the nuts and bolts of the business" ?</v>
+        <v/>
       </c>
       <c r="Q13" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R13" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S13" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T13" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001012</v>
       </c>
       <c r="U13" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "You need to know the nuts and bolts of the business" ?</v>
       </c>
       <c r="V13" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W13" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X13" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y13" s="15" t="str">
         <f t="shared" si="11"/>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AA13" s="17"/>
     </row>
-    <row r="14" ht="24" spans="1:27">
+    <row r="14" ht="35" spans="1:27">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -4141,11 +4141,11 @@
       </c>
       <c r="J14" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="15">
         <f t="shared" si="2"/>
@@ -4159,43 +4159,43 @@
       </c>
       <c r="O14" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001013</v>
       </c>
       <c r="P14" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "His drawer is full of odds and ends" ?</v>
       </c>
       <c r="Q14" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R14" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S14" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T14" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001013</v>
+        <v/>
       </c>
       <c r="U14" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "His drawer is full of odds and ends" ?</v>
+        <v/>
       </c>
       <c r="V14" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W14" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X14" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y14" s="15" t="str">
         <f t="shared" si="11"/>
@@ -4325,11 +4325,11 @@
       </c>
       <c r="J16" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="2"/>
@@ -4343,43 +4343,43 @@
       </c>
       <c r="O16" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001015</v>
       </c>
       <c r="P16" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "full of piss and vinegar  " ?</v>
       </c>
       <c r="Q16" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R16" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S16" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T16" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001015</v>
+        <v/>
       </c>
       <c r="U16" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "full of piss and vinegar  " ?</v>
+        <v/>
       </c>
       <c r="V16" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W16" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X16" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y16" s="15" t="str">
         <f t="shared" si="11"/>
@@ -4417,11 +4417,11 @@
       </c>
       <c r="J17" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="15">
         <f t="shared" si="2"/>
@@ -4435,43 +4435,43 @@
       </c>
       <c r="O17" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001016</v>
+        <v/>
       </c>
       <c r="P17" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "tooth and nail" ?</v>
+        <v/>
       </c>
       <c r="Q17" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R17" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S17" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T17" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001016</v>
       </c>
       <c r="U17" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "tooth and nail" ?</v>
       </c>
       <c r="V17" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W17" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X17" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y17" s="15" t="str">
         <f t="shared" si="11"/>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="AA17" s="17"/>
     </row>
-    <row r="18" ht="24" spans="1:27">
+    <row r="18" ht="35" spans="1:27">
       <c r="A18" s="9">
         <v>10</v>
       </c>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="AA18" s="15"/>
     </row>
-    <row r="19" ht="24" spans="1:27">
+    <row r="19" ht="35" spans="1:27">
       <c r="A19" s="9">
         <v>10</v>
       </c>
@@ -4601,11 +4601,11 @@
       </c>
       <c r="J19" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="2"/>
@@ -4619,43 +4619,43 @@
       </c>
       <c r="O19" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002018</v>
       </c>
       <c r="P19" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "There is a body of opinion on this subject" ?</v>
       </c>
       <c r="Q19" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R19" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S19" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T19" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002018</v>
+        <v/>
       </c>
       <c r="U19" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "There is a body of opinion on this subject" ?</v>
+        <v/>
       </c>
       <c r="V19" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W19" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X19" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y19" s="15" t="str">
         <f t="shared" si="11"/>
@@ -4877,11 +4877,11 @@
       </c>
       <c r="J22" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="2"/>
@@ -4895,43 +4895,43 @@
       </c>
       <c r="O22" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002021</v>
       </c>
       <c r="P22" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "It won’t make a scratch of difference" ?</v>
       </c>
       <c r="Q22" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R22" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S22" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T22" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002021</v>
+        <v/>
       </c>
       <c r="U22" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "It won’t make a scratch of difference" ?</v>
+        <v/>
       </c>
       <c r="V22" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W22" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X22" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y22" s="15" t="str">
         <f t="shared" si="11"/>
@@ -4969,11 +4969,11 @@
       </c>
       <c r="J23" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="2"/>
@@ -4987,43 +4987,43 @@
       </c>
       <c r="O23" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002022</v>
       </c>
       <c r="P23" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a raft of problems" ?</v>
       </c>
       <c r="Q23" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R23" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S23" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T23" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002022</v>
+        <v/>
       </c>
       <c r="U23" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a raft of problems" ?</v>
+        <v/>
       </c>
       <c r="V23" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W23" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X23" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y23" s="15" t="str">
         <f t="shared" si="11"/>
@@ -5061,11 +5061,11 @@
       </c>
       <c r="J24" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="2"/>
@@ -5079,43 +5079,43 @@
       </c>
       <c r="O24" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002023</v>
       </c>
       <c r="P24" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "bad run of luck" ?</v>
       </c>
       <c r="Q24" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R24" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S24" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T24" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002023</v>
+        <v/>
       </c>
       <c r="U24" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "bad run of luck" ?</v>
+        <v/>
       </c>
       <c r="V24" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W24" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X24" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y24" s="15" t="str">
         <f t="shared" si="11"/>
@@ -5245,11 +5245,11 @@
       </c>
       <c r="J26" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="2"/>
@@ -5263,43 +5263,43 @@
       </c>
       <c r="O26" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002025</v>
+        <v/>
       </c>
       <c r="P26" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "an ounce of common sense" ?</v>
+        <v/>
       </c>
       <c r="Q26" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R26" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S26" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T26" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002025</v>
       </c>
       <c r="U26" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "an ounce of common sense" ?</v>
       </c>
       <c r="V26" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W26" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X26" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y26" s="15" t="str">
         <f t="shared" si="11"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="AA26" s="17"/>
     </row>
-    <row r="27" ht="35" spans="1:27">
+    <row r="27" ht="24" spans="1:27">
       <c r="A27" s="9">
         <v>10</v>
       </c>
@@ -5337,11 +5337,11 @@
       </c>
       <c r="J27" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="15">
         <f t="shared" si="2"/>
@@ -5355,43 +5355,43 @@
       </c>
       <c r="O27" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002026</v>
+        <v/>
       </c>
       <c r="P27" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Stories of her romance are legion" ?</v>
+        <v/>
       </c>
       <c r="Q27" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R27" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S27" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T27" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002026</v>
       </c>
       <c r="U27" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Stories of her romance are legion" ?</v>
       </c>
       <c r="V27" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W27" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X27" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y27" s="15" t="str">
         <f t="shared" si="11"/>
@@ -5521,11 +5521,11 @@
       </c>
       <c r="J29" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="2"/>
@@ -5539,43 +5539,43 @@
       </c>
       <c r="O29" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002028</v>
       </c>
       <c r="P29" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "nuggets of wisdom" ?</v>
       </c>
       <c r="Q29" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R29" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S29" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T29" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002028</v>
+        <v/>
       </c>
       <c r="U29" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "nuggets of wisdom" ?</v>
+        <v/>
       </c>
       <c r="V29" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W29" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X29" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y29" s="15" t="str">
         <f t="shared" si="11"/>
@@ -5613,11 +5613,11 @@
       </c>
       <c r="J30" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="2"/>
@@ -5631,43 +5631,43 @@
       </c>
       <c r="O30" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002029</v>
+        <v/>
       </c>
       <c r="P30" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a parade of witnesses" ?</v>
+        <v/>
       </c>
       <c r="Q30" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R30" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S30" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T30" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002029</v>
       </c>
       <c r="U30" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a parade of witnesses" ?</v>
       </c>
       <c r="V30" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W30" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X30" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y30" s="15" t="str">
         <f t="shared" si="11"/>
@@ -5705,11 +5705,11 @@
       </c>
       <c r="J31" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="15">
         <f t="shared" si="2"/>
@@ -5723,43 +5723,43 @@
       </c>
       <c r="O31" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002030</v>
       </c>
       <c r="P31" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "not a flicker of interest" ?</v>
       </c>
       <c r="Q31" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R31" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S31" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T31" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002030</v>
+        <v/>
       </c>
       <c r="U31" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "not a flicker of interest" ?</v>
+        <v/>
       </c>
       <c r="V31" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W31" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X31" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y31" s="15" t="str">
         <f t="shared" si="11"/>
@@ -6349,11 +6349,11 @@
       </c>
       <c r="J38" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="15">
         <f t="shared" si="2"/>
@@ -6367,43 +6367,43 @@
       </c>
       <c r="O38" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002037</v>
       </c>
       <c r="P38" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "chorus of criticism" ?</v>
       </c>
       <c r="Q38" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R38" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S38" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T38" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002037</v>
+        <v/>
       </c>
       <c r="U38" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "chorus of criticism" ?</v>
+        <v/>
       </c>
       <c r="V38" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W38" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X38" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y38" s="15" t="str">
         <f t="shared" si="11"/>
@@ -6533,11 +6533,11 @@
       </c>
       <c r="J40" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="15">
         <f t="shared" si="2"/>
@@ -6551,43 +6551,43 @@
       </c>
       <c r="O40" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002039</v>
       </c>
       <c r="P40" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "without a wisp of fact" ?</v>
       </c>
       <c r="Q40" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R40" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S40" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T40" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002039</v>
+        <v/>
       </c>
       <c r="U40" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "without a wisp of fact" ?</v>
+        <v/>
       </c>
       <c r="V40" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W40" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X40" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y40" s="15" t="str">
         <f t="shared" si="11"/>
@@ -6717,11 +6717,11 @@
       </c>
       <c r="J42" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="15">
         <f t="shared" si="2"/>
@@ -6735,43 +6735,43 @@
       </c>
       <c r="O42" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002041</v>
+        <v/>
       </c>
       <c r="P42" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a morsel of truth" ?</v>
+        <v/>
       </c>
       <c r="Q42" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R42" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S42" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T42" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002041</v>
       </c>
       <c r="U42" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a morsel of truth" ?</v>
       </c>
       <c r="V42" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W42" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X42" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y42" s="15" t="str">
         <f t="shared" si="11"/>
@@ -6993,11 +6993,11 @@
       </c>
       <c r="J45" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="2"/>
@@ -7011,43 +7011,43 @@
       </c>
       <c r="O45" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002044</v>
       </c>
       <c r="P45" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "thicket of rules and regulations" ?</v>
       </c>
       <c r="Q45" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R45" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S45" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T45" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002044</v>
+        <v/>
       </c>
       <c r="U45" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "thicket of rules and regulations" ?</v>
+        <v/>
       </c>
       <c r="V45" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W45" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X45" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y45" s="15" t="str">
         <f t="shared" si="11"/>
@@ -7085,11 +7085,11 @@
       </c>
       <c r="J46" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="2"/>
@@ -7103,43 +7103,43 @@
       </c>
       <c r="O46" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002045</v>
+        <v/>
       </c>
       <c r="P46" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a pride of lions" ?</v>
+        <v/>
       </c>
       <c r="Q46" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R46" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S46" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T46" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002045</v>
       </c>
       <c r="U46" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a pride of lions" ?</v>
       </c>
       <c r="V46" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W46" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X46" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y46" s="15" t="str">
         <f t="shared" si="11"/>
@@ -7177,11 +7177,11 @@
       </c>
       <c r="J47" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="2"/>
@@ -7195,43 +7195,43 @@
       </c>
       <c r="O47" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002046</v>
+        <v/>
       </c>
       <c r="P47" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a slice of life" ?</v>
+        <v/>
       </c>
       <c r="Q47" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R47" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S47" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T47" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002046</v>
       </c>
       <c r="U47" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a slice of life" ?</v>
       </c>
       <c r="V47" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W47" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X47" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y47" s="15" t="str">
         <f t="shared" si="11"/>
@@ -7269,11 +7269,11 @@
       </c>
       <c r="J48" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="15">
         <f t="shared" si="2"/>
@@ -7287,43 +7287,43 @@
       </c>
       <c r="O48" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002047</v>
       </c>
       <c r="P48" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a prick of conscience" ?</v>
       </c>
       <c r="Q48" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R48" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S48" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T48" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002047</v>
+        <v/>
       </c>
       <c r="U48" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a prick of conscience" ?</v>
+        <v/>
       </c>
       <c r="V48" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W48" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X48" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y48" s="15" t="str">
         <f t="shared" si="11"/>
@@ -7453,11 +7453,11 @@
       </c>
       <c r="J50" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="15">
         <f t="shared" si="2"/>
@@ -7471,43 +7471,43 @@
       </c>
       <c r="O50" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002049</v>
+        <v/>
       </c>
       <c r="P50" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a catalogue of crimes" ?</v>
+        <v/>
       </c>
       <c r="Q50" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R50" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S50" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T50" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002049</v>
       </c>
       <c r="U50" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a catalogue of crimes" ?</v>
       </c>
       <c r="V50" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W50" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X50" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y50" s="15" t="str">
         <f t="shared" si="11"/>
@@ -7729,11 +7729,11 @@
       </c>
       <c r="J53" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="15">
         <f t="shared" si="2"/>
@@ -7747,43 +7747,43 @@
       </c>
       <c r="O53" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002052</v>
       </c>
       <c r="P53" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "oceans of time" ?</v>
       </c>
       <c r="Q53" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R53" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S53" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T53" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002052</v>
+        <v/>
       </c>
       <c r="U53" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "oceans of time" ?</v>
+        <v/>
       </c>
       <c r="V53" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W53" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X53" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y53" s="15" t="str">
         <f t="shared" si="11"/>
@@ -7821,11 +7821,11 @@
       </c>
       <c r="J54" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="2"/>
@@ -7839,43 +7839,43 @@
       </c>
       <c r="O54" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002053</v>
+        <v/>
       </c>
       <c r="P54" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "You need a large dollop of luck to succeed" ?</v>
+        <v/>
       </c>
       <c r="Q54" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R54" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S54" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T54" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002053</v>
       </c>
       <c r="U54" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "You need a large dollop of luck to succeed" ?</v>
       </c>
       <c r="V54" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W54" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X54" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y54" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8005,11 +8005,11 @@
       </c>
       <c r="J56" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="15">
         <f t="shared" si="2"/>
@@ -8023,43 +8023,43 @@
       </c>
       <c r="O56" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002055</v>
       </c>
       <c r="P56" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a tsunami of Covid cases" ?</v>
       </c>
       <c r="Q56" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R56" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S56" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T56" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002055</v>
+        <v/>
       </c>
       <c r="U56" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a tsunami of Covid cases" ?</v>
+        <v/>
       </c>
       <c r="V56" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W56" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X56" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y56" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8281,11 +8281,11 @@
       </c>
       <c r="J59" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="15">
         <f t="shared" si="2"/>
@@ -8299,43 +8299,43 @@
       </c>
       <c r="O59" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21003058</v>
       </c>
       <c r="P59" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "nose dive" ?</v>
       </c>
       <c r="Q59" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R59" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S59" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T59" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31003058</v>
+        <v/>
       </c>
       <c r="U59" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "nose dive" ?</v>
+        <v/>
       </c>
       <c r="V59" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W59" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X59" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y59" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8373,11 +8373,11 @@
       </c>
       <c r="J60" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="15">
         <f t="shared" si="2"/>
@@ -8391,43 +8391,43 @@
       </c>
       <c r="O60" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21003059</v>
       </c>
       <c r="P60" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "skyrocket" ?</v>
       </c>
       <c r="Q60" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R60" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S60" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T60" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31003059</v>
+        <v/>
       </c>
       <c r="U60" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "skyrocket" ?</v>
+        <v/>
       </c>
       <c r="V60" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W60" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X60" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y60" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8465,11 +8465,11 @@
       </c>
       <c r="J61" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="15">
         <f t="shared" si="2"/>
@@ -8483,43 +8483,43 @@
       </c>
       <c r="O61" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21003060</v>
       </c>
       <c r="P61" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "inundated" ?</v>
       </c>
       <c r="Q61" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R61" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S61" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T61" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31003060</v>
+        <v/>
       </c>
       <c r="U61" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "inundated" ?</v>
+        <v/>
       </c>
       <c r="V61" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W61" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X61" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y61" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="AA62" s="17"/>
     </row>
-    <row r="63" ht="24" spans="1:27">
+    <row r="63" spans="1:27">
       <c r="A63" s="9">
         <v>10</v>
       </c>
@@ -8833,11 +8833,11 @@
       </c>
       <c r="J65" s="15">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="15">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="15">
         <f t="shared" si="2"/>
@@ -8851,43 +8851,43 @@
       </c>
       <c r="O65" s="15" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21003064</v>
+        <v/>
       </c>
       <c r="P65" s="15" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "magnificient" ?</v>
+        <v/>
       </c>
       <c r="Q65" s="15" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R65" s="15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S65" s="15" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T65" s="15" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31003064</v>
       </c>
       <c r="U65" s="15" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "magnificient" ?</v>
       </c>
       <c r="V65" s="15" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W65" s="15" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X65" s="15" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y65" s="15" t="str">
         <f t="shared" si="11"/>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="AA65" s="17"/>
     </row>
-    <row r="66" ht="35" spans="1:27">
+    <row r="66" ht="24" spans="1:27">
       <c r="A66" s="9">
         <v>10</v>
       </c>
@@ -9201,11 +9201,11 @@
       </c>
       <c r="J69" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="15">
         <f t="shared" si="17"/>
@@ -9219,43 +9219,43 @@
       </c>
       <c r="O69" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003068</v>
       </c>
       <c r="P69" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The economy is roaring" ?</v>
       </c>
       <c r="Q69" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R69" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S69" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T69" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003068</v>
+        <v/>
       </c>
       <c r="U69" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The economy is roaring" ?</v>
+        <v/>
       </c>
       <c r="V69" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W69" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X69" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y69" s="15" t="str">
         <f t="shared" si="26"/>
@@ -9293,11 +9293,11 @@
       </c>
       <c r="J70" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="15">
         <f t="shared" si="17"/>
@@ -9311,43 +9311,43 @@
       </c>
       <c r="O70" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003069</v>
       </c>
       <c r="P70" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Boris lives to libel" ?</v>
       </c>
       <c r="Q70" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R70" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S70" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T70" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003069</v>
+        <v/>
       </c>
       <c r="U70" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Boris lives to libel" ?</v>
+        <v/>
       </c>
       <c r="V70" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W70" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X70" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y70" s="15" t="str">
         <f t="shared" si="26"/>
@@ -9569,11 +9569,11 @@
       </c>
       <c r="J73" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="15">
         <f t="shared" si="17"/>
@@ -9587,43 +9587,43 @@
       </c>
       <c r="O73" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003072</v>
       </c>
       <c r="P73" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He plumbs new depths of idiocy" ?</v>
       </c>
       <c r="Q73" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R73" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S73" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T73" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003072</v>
+        <v/>
       </c>
       <c r="U73" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He plumbs new depths of idiocy" ?</v>
+        <v/>
       </c>
       <c r="V73" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W73" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X73" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y73" s="15" t="str">
         <f t="shared" si="26"/>
@@ -9661,11 +9661,11 @@
       </c>
       <c r="J74" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="15">
         <f t="shared" si="17"/>
@@ -9679,43 +9679,43 @@
       </c>
       <c r="O74" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003073</v>
+        <v/>
       </c>
       <c r="P74" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He has talent to burn" ?</v>
+        <v/>
       </c>
       <c r="Q74" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R74" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S74" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T74" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003073</v>
       </c>
       <c r="U74" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He has talent to burn" ?</v>
       </c>
       <c r="V74" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W74" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X74" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y74" s="15" t="str">
         <f t="shared" si="26"/>
@@ -9753,11 +9753,11 @@
       </c>
       <c r="J75" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="15">
         <f t="shared" si="17"/>
@@ -9771,43 +9771,43 @@
       </c>
       <c r="O75" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003074</v>
+        <v/>
       </c>
       <c r="P75" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "full-blown pandemic" ?</v>
+        <v/>
       </c>
       <c r="Q75" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R75" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S75" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T75" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003074</v>
       </c>
       <c r="U75" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "full-blown pandemic" ?</v>
       </c>
       <c r="V75" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W75" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X75" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y75" s="15" t="str">
         <f t="shared" si="26"/>
@@ -10029,11 +10029,11 @@
       </c>
       <c r="J78" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="15">
         <f t="shared" si="17"/>
@@ -10047,43 +10047,43 @@
       </c>
       <c r="O78" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003077</v>
       </c>
       <c r="P78" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "the mother of all wars" ?</v>
       </c>
       <c r="Q78" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R78" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S78" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T78" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003077</v>
+        <v/>
       </c>
       <c r="U78" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "the mother of all wars" ?</v>
+        <v/>
       </c>
       <c r="V78" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W78" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X78" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y78" s="15" t="str">
         <f t="shared" si="26"/>
@@ -10121,11 +10121,11 @@
       </c>
       <c r="J79" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="15">
         <f t="shared" si="17"/>
@@ -10139,43 +10139,43 @@
       </c>
       <c r="O79" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003078</v>
+        <v/>
       </c>
       <c r="P79" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "She was born to shop." ?</v>
+        <v/>
       </c>
       <c r="Q79" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R79" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S79" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T79" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003078</v>
       </c>
       <c r="U79" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "She was born to shop." ?</v>
       </c>
       <c r="V79" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W79" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X79" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y79" s="15" t="str">
         <f t="shared" si="26"/>
@@ -10213,11 +10213,11 @@
       </c>
       <c r="J80" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="15">
         <f t="shared" si="17"/>
@@ -10231,43 +10231,43 @@
       </c>
       <c r="O80" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003079</v>
+        <v/>
       </c>
       <c r="P80" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "wafer-thin majority" ?</v>
+        <v/>
       </c>
       <c r="Q80" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R80" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S80" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T80" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003079</v>
       </c>
       <c r="U80" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "wafer-thin majority" ?</v>
       </c>
       <c r="V80" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W80" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X80" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y80" s="15" t="str">
         <f t="shared" si="26"/>
@@ -10305,11 +10305,11 @@
       </c>
       <c r="J81" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="15">
         <f t="shared" si="17"/>
@@ -10323,43 +10323,43 @@
       </c>
       <c r="O81" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004080</v>
       </c>
       <c r="P81" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "threading a needle" ?</v>
       </c>
       <c r="Q81" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R81" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S81" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T81" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004080</v>
+        <v/>
       </c>
       <c r="U81" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "threading a needle" ?</v>
+        <v/>
       </c>
       <c r="V81" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W81" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X81" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y81" s="15" t="str">
         <f t="shared" si="26"/>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="AA82" s="15"/>
     </row>
-    <row r="83" ht="35" spans="1:27">
+    <row r="83" ht="24" spans="1:27">
       <c r="A83" s="9">
         <v>10</v>
       </c>
@@ -10489,11 +10489,11 @@
       </c>
       <c r="J83" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="15">
         <f t="shared" si="17"/>
@@ -10507,43 +10507,43 @@
       </c>
       <c r="O83" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004082</v>
+        <v/>
       </c>
       <c r="P83" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "watch the grass grow under your feet" ?</v>
+        <v/>
       </c>
       <c r="Q83" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R83" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S83" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T83" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004082</v>
       </c>
       <c r="U83" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "watch the grass grow under your feet" ?</v>
       </c>
       <c r="V83" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W83" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X83" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y83" s="15" t="str">
         <f t="shared" si="26"/>
@@ -10673,11 +10673,11 @@
       </c>
       <c r="J85" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="15">
         <f t="shared" si="17"/>
@@ -10691,43 +10691,43 @@
       </c>
       <c r="O85" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004084</v>
+        <v/>
       </c>
       <c r="P85" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The floodgates opened" ?</v>
+        <v/>
       </c>
       <c r="Q85" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R85" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S85" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T85" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004084</v>
       </c>
       <c r="U85" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The floodgates opened" ?</v>
       </c>
       <c r="V85" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W85" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X85" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y85" s="15" t="str">
         <f t="shared" si="26"/>
@@ -10765,11 +10765,11 @@
       </c>
       <c r="J86" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="15">
         <f t="shared" si="17"/>
@@ -10783,43 +10783,43 @@
       </c>
       <c r="O86" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004085</v>
       </c>
       <c r="P86" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "His reputation nose-dived" ?</v>
       </c>
       <c r="Q86" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R86" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S86" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T86" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004085</v>
+        <v/>
       </c>
       <c r="U86" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "His reputation nose-dived" ?</v>
+        <v/>
       </c>
       <c r="V86" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W86" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X86" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y86" s="15" t="str">
         <f t="shared" si="26"/>
@@ -10857,11 +10857,11 @@
       </c>
       <c r="J87" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="15">
         <f t="shared" si="17"/>
@@ -10875,43 +10875,43 @@
       </c>
       <c r="O87" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004086</v>
+        <v/>
       </c>
       <c r="P87" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "That’s the way the cookie crumbles" ?</v>
+        <v/>
       </c>
       <c r="Q87" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R87" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S87" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T87" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004086</v>
       </c>
       <c r="U87" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "That’s the way the cookie crumbles" ?</v>
       </c>
       <c r="V87" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W87" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X87" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y87" s="15" t="str">
         <f t="shared" si="26"/>
@@ -11041,11 +11041,11 @@
       </c>
       <c r="J89" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="15">
         <f t="shared" si="17"/>
@@ -11059,43 +11059,43 @@
       </c>
       <c r="O89" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004088</v>
       </c>
       <c r="P89" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "yo-yo dieting" ?</v>
       </c>
       <c r="Q89" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R89" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S89" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T89" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004088</v>
+        <v/>
       </c>
       <c r="U89" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "yo-yo dieting" ?</v>
+        <v/>
       </c>
       <c r="V89" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W89" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X89" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y89" s="15" t="str">
         <f t="shared" si="26"/>
@@ -11133,11 +11133,11 @@
       </c>
       <c r="J90" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="15">
         <f t="shared" si="17"/>
@@ -11151,43 +11151,43 @@
       </c>
       <c r="O90" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004089</v>
       </c>
       <c r="P90" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He was turned into a footnote in history" ?</v>
       </c>
       <c r="Q90" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R90" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S90" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T90" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004089</v>
+        <v/>
       </c>
       <c r="U90" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He was turned into a footnote in history" ?</v>
+        <v/>
       </c>
       <c r="V90" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W90" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X90" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y90" s="15" t="str">
         <f t="shared" si="26"/>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="AA91" s="15"/>
     </row>
-    <row r="92" ht="35" spans="1:27">
+    <row r="92" ht="24" spans="1:27">
       <c r="A92" s="9">
         <v>10</v>
       </c>
@@ -11317,11 +11317,11 @@
       </c>
       <c r="J92" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="15">
         <f t="shared" si="17"/>
@@ -11335,43 +11335,43 @@
       </c>
       <c r="O92" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004091</v>
+        <v/>
       </c>
       <c r="P92" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Kicking the can down the road" ?</v>
+        <v/>
       </c>
       <c r="Q92" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R92" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S92" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T92" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004091</v>
       </c>
       <c r="U92" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Kicking the can down the road" ?</v>
       </c>
       <c r="V92" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W92" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X92" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y92" s="15" t="str">
         <f t="shared" si="26"/>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="AA92" s="15"/>
     </row>
-    <row r="93" ht="35" spans="1:27">
+    <row r="93" ht="24" spans="1:27">
       <c r="A93" s="9">
         <v>10</v>
       </c>
@@ -11501,11 +11501,11 @@
       </c>
       <c r="J94" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="15">
         <f t="shared" si="17"/>
@@ -11519,43 +11519,43 @@
       </c>
       <c r="O94" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004093</v>
       </c>
       <c r="P94" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "boomerang kids" ?</v>
       </c>
       <c r="Q94" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R94" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S94" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T94" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004093</v>
+        <v/>
       </c>
       <c r="U94" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "boomerang kids" ?</v>
+        <v/>
       </c>
       <c r="V94" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W94" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X94" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y94" s="15" t="str">
         <f t="shared" si="26"/>
@@ -11593,11 +11593,11 @@
       </c>
       <c r="J95" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="15">
         <f t="shared" si="17"/>
@@ -11611,43 +11611,43 @@
       </c>
       <c r="O95" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004094</v>
+        <v/>
       </c>
       <c r="P95" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "helicopter parents" ?</v>
+        <v/>
       </c>
       <c r="Q95" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R95" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S95" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T95" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004094</v>
       </c>
       <c r="U95" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "helicopter parents" ?</v>
       </c>
       <c r="V95" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W95" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X95" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y95" s="15" t="str">
         <f t="shared" si="26"/>
@@ -11685,11 +11685,11 @@
       </c>
       <c r="J96" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="15">
         <f t="shared" si="17"/>
@@ -11703,43 +11703,43 @@
       </c>
       <c r="O96" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004095</v>
+        <v/>
       </c>
       <c r="P96" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "I have reached the end of the tether" ?</v>
+        <v/>
       </c>
       <c r="Q96" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R96" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S96" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T96" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004095</v>
       </c>
       <c r="U96" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "I have reached the end of the tether" ?</v>
       </c>
       <c r="V96" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W96" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X96" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y96" s="15" t="str">
         <f t="shared" si="26"/>
@@ -11961,11 +11961,11 @@
       </c>
       <c r="J99" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="15">
         <f t="shared" si="17"/>
@@ -11979,43 +11979,43 @@
       </c>
       <c r="O99" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004098</v>
+        <v/>
       </c>
       <c r="P99" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "dog-whistle politics" ?</v>
+        <v/>
       </c>
       <c r="Q99" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R99" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S99" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T99" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004098</v>
       </c>
       <c r="U99" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "dog-whistle politics" ?</v>
       </c>
       <c r="V99" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W99" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X99" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y99" s="15" t="str">
         <f t="shared" si="26"/>
@@ -12053,11 +12053,11 @@
       </c>
       <c r="J100" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" s="15">
         <f t="shared" si="17"/>
@@ -12071,43 +12071,43 @@
       </c>
       <c r="O100" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004099</v>
       </c>
       <c r="P100" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He peels off. " ?</v>
       </c>
       <c r="Q100" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R100" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S100" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T100" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004099</v>
+        <v/>
       </c>
       <c r="U100" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He peels off. " ?</v>
+        <v/>
       </c>
       <c r="V100" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W100" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X100" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y100" s="15" t="str">
         <f t="shared" si="26"/>
@@ -12419,11 +12419,11 @@
       </c>
       <c r="J104" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="15">
         <f t="shared" si="17"/>
@@ -12437,43 +12437,43 @@
       </c>
       <c r="O104" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004103</v>
+        <v/>
       </c>
       <c r="P104" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "ambulance-chasing lawyers" ?</v>
+        <v/>
       </c>
       <c r="Q104" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R104" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S104" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T104" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004103</v>
       </c>
       <c r="U104" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "ambulance-chasing lawyers" ?</v>
       </c>
       <c r="V104" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W104" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X104" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y104" s="15" t="str">
         <f t="shared" si="26"/>
@@ -12511,11 +12511,11 @@
       </c>
       <c r="J105" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="15">
         <f t="shared" si="17"/>
@@ -12529,43 +12529,43 @@
       </c>
       <c r="O105" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004104</v>
       </c>
       <c r="P105" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "a square peg in a round hole" ?</v>
       </c>
       <c r="Q105" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R105" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S105" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T105" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004104</v>
+        <v/>
       </c>
       <c r="U105" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "a square peg in a round hole" ?</v>
+        <v/>
       </c>
       <c r="V105" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W105" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X105" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y105" s="15" t="str">
         <f t="shared" si="26"/>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="AA106" s="17"/>
     </row>
-    <row r="107" ht="24" spans="1:27">
+    <row r="107" ht="35" spans="1:27">
       <c r="A107" s="9">
         <v>10</v>
       </c>
@@ -12787,11 +12787,11 @@
       </c>
       <c r="J108" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="15">
         <f t="shared" si="17"/>
@@ -12805,43 +12805,43 @@
       </c>
       <c r="O108" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004107</v>
+        <v/>
       </c>
       <c r="P108" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The police are on his tail" ?</v>
+        <v/>
       </c>
       <c r="Q108" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R108" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S108" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T108" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004107</v>
       </c>
       <c r="U108" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The police are on his tail" ?</v>
       </c>
       <c r="V108" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W108" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X108" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y108" s="15" t="str">
         <f t="shared" si="26"/>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="AA108" s="17"/>
     </row>
-    <row r="109" ht="35" spans="1:27">
+    <row r="109" ht="24" spans="1:27">
       <c r="A109" s="9">
         <v>10</v>
       </c>
@@ -13155,11 +13155,11 @@
       </c>
       <c r="J112" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="15">
         <f t="shared" si="17"/>
@@ -13173,43 +13173,43 @@
       </c>
       <c r="O112" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004111</v>
+        <v/>
       </c>
       <c r="P112" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He is a political jellyfish" ?</v>
+        <v/>
       </c>
       <c r="Q112" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R112" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S112" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T112" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004111</v>
       </c>
       <c r="U112" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He is a political jellyfish" ?</v>
       </c>
       <c r="V112" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W112" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X112" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y112" s="15" t="str">
         <f t="shared" si="26"/>
@@ -13339,11 +13339,11 @@
       </c>
       <c r="J114" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" s="15">
         <f t="shared" si="17"/>
@@ -13357,43 +13357,43 @@
       </c>
       <c r="O114" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004113</v>
       </c>
       <c r="P114" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "finger-licking good" ?</v>
       </c>
       <c r="Q114" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R114" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S114" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T114" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004113</v>
+        <v/>
       </c>
       <c r="U114" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "finger-licking good" ?</v>
+        <v/>
       </c>
       <c r="V114" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W114" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X114" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y114" s="15" t="str">
         <f t="shared" si="26"/>
@@ -13431,11 +13431,11 @@
       </c>
       <c r="J115" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" s="15">
         <f t="shared" si="17"/>
@@ -13449,43 +13449,43 @@
       </c>
       <c r="O115" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004114</v>
       </c>
       <c r="P115" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He is wrapping himself around the flag on this issue" ?</v>
       </c>
       <c r="Q115" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R115" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S115" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T115" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004114</v>
+        <v/>
       </c>
       <c r="U115" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He is wrapping himself around the flag on this issue" ?</v>
+        <v/>
       </c>
       <c r="V115" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W115" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X115" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y115" s="15" t="str">
         <f t="shared" si="26"/>
@@ -13615,11 +13615,11 @@
       </c>
       <c r="J117" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="15">
         <f t="shared" si="17"/>
@@ -13633,43 +13633,43 @@
       </c>
       <c r="O117" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004116</v>
+        <v/>
       </c>
       <c r="P117" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "I saw a flicker of annoyance" ?</v>
+        <v/>
       </c>
       <c r="Q117" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R117" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S117" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T117" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004116</v>
       </c>
       <c r="U117" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "I saw a flicker of annoyance" ?</v>
       </c>
       <c r="V117" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W117" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X117" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y117" s="15" t="str">
         <f t="shared" si="26"/>
@@ -13799,11 +13799,11 @@
       </c>
       <c r="J119" s="15">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="15">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="15">
         <f t="shared" si="17"/>
@@ -13817,43 +13817,43 @@
       </c>
       <c r="O119" s="15" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004118</v>
+        <v/>
       </c>
       <c r="P119" s="15" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Hillary is a coin-operated policymaker" ?</v>
+        <v/>
       </c>
       <c r="Q119" s="15" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R119" s="15" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S119" s="15" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T119" s="15" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004118</v>
       </c>
       <c r="U119" s="15" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Hillary is a coin-operated policymaker" ?</v>
       </c>
       <c r="V119" s="15" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W119" s="15" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X119" s="15" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y119" s="15" t="str">
         <f t="shared" si="26"/>

--- a/miniproject/template/Lectures/Lecture 10.xlsx
+++ b/miniproject/template/Lectures/Lecture 10.xlsx
@@ -109,7 +109,7 @@
     <t>good times and bad times</t>
   </si>
   <si>
-    <t>患难与共！</t>
+    <t>患难与共</t>
   </si>
   <si>
     <t>1001002</t>
@@ -1815,10 +1815,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1888,16 +1888,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1907,6 +1907,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1926,8 +1933,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1950,7 +1958,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1964,23 +1972,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1995,16 +1988,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2019,7 +2011,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2052,19 +2052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,13 +2070,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,13 +2130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2118,49 +2154,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2178,61 +2196,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,11 +2311,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2324,7 +2330,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2340,17 +2346,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2385,162 +2380,167 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="Z2" s="16" t="str">
         <f>IF(L2=1,CONCATENATE("How to say """,I2,""" ?"),"")</f>
-        <v>How to say "患难与共！" ?</v>
+        <v>How to say "患难与共" ?</v>
       </c>
       <c r="AA2" s="16"/>
     </row>
@@ -3505,11 +3505,11 @@
       </c>
       <c r="J7" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="2"/>
@@ -3523,43 +3523,43 @@
       </c>
       <c r="O7" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001006</v>
+        <v/>
       </c>
       <c r="P7" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "bread-and-butter issues" ?</v>
+        <v/>
       </c>
       <c r="Q7" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R7" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S7" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T7" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001006</v>
       </c>
       <c r="U7" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "bread-and-butter issues" ?</v>
       </c>
       <c r="V7" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W7" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X7" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y7" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" ht="35" spans="1:27">
+    <row r="9" ht="24" spans="1:27">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -3781,11 +3781,11 @@
       </c>
       <c r="J10" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="2"/>
@@ -3799,43 +3799,43 @@
       </c>
       <c r="O10" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001009</v>
+        <v/>
       </c>
       <c r="P10" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "His new house has got all the bells and whistles—a whirl pool, sauna room and exercise equipment" ?</v>
+        <v/>
       </c>
       <c r="Q10" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R10" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S10" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T10" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001009</v>
       </c>
       <c r="U10" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "His new house has got all the bells and whistles—a whirl pool, sauna room and exercise equipment" ?</v>
       </c>
       <c r="V10" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W10" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X10" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y10" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="J11" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="2"/>
@@ -3891,43 +3891,43 @@
       </c>
       <c r="O11" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001010</v>
       </c>
       <c r="P11" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "You can’t compare apples and oranges" ?</v>
       </c>
       <c r="Q11" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R11" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S11" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T11" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001010</v>
+        <v/>
       </c>
       <c r="U11" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "You can’t compare apples and oranges" ?</v>
+        <v/>
       </c>
       <c r="V11" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W11" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X11" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y11" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="AA13" s="18"/>
     </row>
-    <row r="14" ht="35" spans="1:27">
+    <row r="14" ht="24" spans="1:27">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -4149,11 +4149,11 @@
       </c>
       <c r="J14" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="2"/>
@@ -4167,43 +4167,43 @@
       </c>
       <c r="O14" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001013</v>
+        <v/>
       </c>
       <c r="P14" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "His drawer is full of odds and ends" ?</v>
+        <v/>
       </c>
       <c r="Q14" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R14" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S14" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T14" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001013</v>
       </c>
       <c r="U14" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "His drawer is full of odds and ends" ?</v>
       </c>
       <c r="V14" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W14" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X14" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y14" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4333,11 +4333,11 @@
       </c>
       <c r="J16" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="2"/>
@@ -4351,43 +4351,43 @@
       </c>
       <c r="O16" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001015</v>
+        <v/>
       </c>
       <c r="P16" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "full of piss and vinegar  " ?</v>
+        <v/>
       </c>
       <c r="Q16" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R16" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S16" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T16" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001015</v>
       </c>
       <c r="U16" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "full of piss and vinegar  " ?</v>
       </c>
       <c r="V16" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W16" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X16" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y16" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4425,11 +4425,11 @@
       </c>
       <c r="J17" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="2"/>
@@ -4443,43 +4443,43 @@
       </c>
       <c r="O17" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001016</v>
+        <v/>
       </c>
       <c r="P17" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "tooth and nail" ?</v>
+        <v/>
       </c>
       <c r="Q17" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R17" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S17" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T17" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001016</v>
       </c>
       <c r="U17" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "tooth and nail" ?</v>
       </c>
       <c r="V17" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W17" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X17" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y17" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="AA17" s="18"/>
     </row>
-    <row r="18" ht="35" spans="1:27">
+    <row r="18" ht="24" spans="1:27">
       <c r="A18" s="9">
         <v>10</v>
       </c>
@@ -4517,11 +4517,11 @@
       </c>
       <c r="J18" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="2"/>
@@ -4535,43 +4535,43 @@
       </c>
       <c r="O18" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002017</v>
+        <v/>
       </c>
       <c r="P18" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "I didn’t sleep a wink last night" ?</v>
+        <v/>
       </c>
       <c r="Q18" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R18" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S18" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T18" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002017</v>
       </c>
       <c r="U18" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "I didn’t sleep a wink last night" ?</v>
       </c>
       <c r="V18" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W18" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X18" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y18" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4609,11 +4609,11 @@
       </c>
       <c r="J19" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="2"/>
@@ -4627,43 +4627,43 @@
       </c>
       <c r="O19" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002018</v>
       </c>
       <c r="P19" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "There is a body of opinion on this subject" ?</v>
       </c>
       <c r="Q19" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R19" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S19" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T19" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002018</v>
+        <v/>
       </c>
       <c r="U19" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "There is a body of opinion on this subject" ?</v>
+        <v/>
       </c>
       <c r="V19" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W19" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X19" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y19" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4793,11 +4793,11 @@
       </c>
       <c r="J21" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="2"/>
@@ -4811,43 +4811,43 @@
       </c>
       <c r="O21" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002020</v>
+        <v/>
       </c>
       <c r="P21" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a barrage of criticism" ?</v>
+        <v/>
       </c>
       <c r="Q21" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R21" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S21" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T21" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002020</v>
       </c>
       <c r="U21" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a barrage of criticism" ?</v>
       </c>
       <c r="V21" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W21" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X21" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y21" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="AA21" s="18"/>
     </row>
-    <row r="22" ht="24" spans="1:27">
+    <row r="22" ht="35" spans="1:27">
       <c r="A22" s="9">
         <v>10</v>
       </c>
@@ -4977,11 +4977,11 @@
       </c>
       <c r="J23" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="2"/>
@@ -4995,43 +4995,43 @@
       </c>
       <c r="O23" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002022</v>
+        <v/>
       </c>
       <c r="P23" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a raft of problems" ?</v>
+        <v/>
       </c>
       <c r="Q23" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R23" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S23" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T23" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002022</v>
       </c>
       <c r="U23" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a raft of problems" ?</v>
       </c>
       <c r="V23" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W23" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X23" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y23" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5069,11 +5069,11 @@
       </c>
       <c r="J24" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="2"/>
@@ -5087,43 +5087,43 @@
       </c>
       <c r="O24" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002023</v>
       </c>
       <c r="P24" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "bad run of luck" ?</v>
       </c>
       <c r="Q24" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R24" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S24" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T24" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002023</v>
+        <v/>
       </c>
       <c r="U24" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "bad run of luck" ?</v>
+        <v/>
       </c>
       <c r="V24" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W24" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X24" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y24" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5161,11 +5161,11 @@
       </c>
       <c r="J25" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="2"/>
@@ -5179,43 +5179,43 @@
       </c>
       <c r="O25" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002024</v>
+        <v/>
       </c>
       <c r="P25" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a modicum of talent" ?</v>
+        <v/>
       </c>
       <c r="Q25" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R25" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S25" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T25" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002024</v>
       </c>
       <c r="U25" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a modicum of talent" ?</v>
       </c>
       <c r="V25" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W25" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X25" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y25" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5253,11 +5253,11 @@
       </c>
       <c r="J26" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="2"/>
@@ -5271,43 +5271,43 @@
       </c>
       <c r="O26" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002025</v>
       </c>
       <c r="P26" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "an ounce of common sense" ?</v>
       </c>
       <c r="Q26" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R26" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S26" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T26" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002025</v>
+        <v/>
       </c>
       <c r="U26" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "an ounce of common sense" ?</v>
+        <v/>
       </c>
       <c r="V26" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W26" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X26" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y26" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5437,11 +5437,11 @@
       </c>
       <c r="J28" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="2"/>
@@ -5455,43 +5455,43 @@
       </c>
       <c r="O28" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002027</v>
+        <v/>
       </c>
       <c r="P28" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a legion of grammar issues" ?</v>
+        <v/>
       </c>
       <c r="Q28" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R28" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S28" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T28" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002027</v>
       </c>
       <c r="U28" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a legion of grammar issues" ?</v>
       </c>
       <c r="V28" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W28" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X28" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y28" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5805,11 +5805,11 @@
       </c>
       <c r="J32" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="2"/>
@@ -5823,43 +5823,43 @@
       </c>
       <c r="O32" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002031</v>
       </c>
       <c r="P32" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a slice of Britishness" ?</v>
       </c>
       <c r="Q32" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R32" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S32" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T32" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002031</v>
+        <v/>
       </c>
       <c r="U32" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a slice of Britishness" ?</v>
+        <v/>
       </c>
       <c r="V32" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W32" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X32" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y32" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5989,11 +5989,11 @@
       </c>
       <c r="J34" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="2"/>
@@ -6007,43 +6007,43 @@
       </c>
       <c r="O34" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002033</v>
+        <v/>
       </c>
       <c r="P34" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "pots of cash" ?</v>
+        <v/>
       </c>
       <c r="Q34" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R34" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S34" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T34" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002033</v>
       </c>
       <c r="U34" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "pots of cash" ?</v>
       </c>
       <c r="V34" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W34" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X34" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y34" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6081,11 +6081,11 @@
       </c>
       <c r="J35" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="2"/>
@@ -6099,43 +6099,43 @@
       </c>
       <c r="O35" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002034</v>
+        <v/>
       </c>
       <c r="P35" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "truckloads of evidence " ?</v>
+        <v/>
       </c>
       <c r="Q35" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R35" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S35" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T35" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002034</v>
       </c>
       <c r="U35" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "truckloads of evidence " ?</v>
       </c>
       <c r="V35" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W35" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X35" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y35" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6449,11 +6449,11 @@
       </c>
       <c r="J39" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="2"/>
@@ -6467,43 +6467,43 @@
       </c>
       <c r="O39" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002038</v>
       </c>
       <c r="P39" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "oodles of cakes" ?</v>
       </c>
       <c r="Q39" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R39" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S39" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T39" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002038</v>
+        <v/>
       </c>
       <c r="U39" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "oodles of cakes" ?</v>
+        <v/>
       </c>
       <c r="V39" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W39" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X39" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y39" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6633,11 +6633,11 @@
       </c>
       <c r="J41" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="2"/>
@@ -6651,43 +6651,43 @@
       </c>
       <c r="O41" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002040</v>
+        <v/>
       </c>
       <c r="P41" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "without a whiff of scandal" ?</v>
+        <v/>
       </c>
       <c r="Q41" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R41" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S41" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T41" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002040</v>
       </c>
       <c r="U41" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "without a whiff of scandal" ?</v>
       </c>
       <c r="V41" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W41" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X41" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y41" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6725,11 +6725,11 @@
       </c>
       <c r="J42" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="2"/>
@@ -6743,43 +6743,43 @@
       </c>
       <c r="O42" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002041</v>
       </c>
       <c r="P42" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a morsel of truth" ?</v>
       </c>
       <c r="Q42" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R42" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S42" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T42" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002041</v>
+        <v/>
       </c>
       <c r="U42" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a morsel of truth" ?</v>
+        <v/>
       </c>
       <c r="V42" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W42" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X42" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y42" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6817,11 +6817,11 @@
       </c>
       <c r="J43" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="16">
         <f t="shared" si="2"/>
@@ -6835,43 +6835,43 @@
       </c>
       <c r="O43" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002042</v>
+        <v/>
       </c>
       <c r="P43" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "an attack of awkwardness" ?</v>
+        <v/>
       </c>
       <c r="Q43" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R43" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S43" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T43" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002042</v>
       </c>
       <c r="U43" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "an attack of awkwardness" ?</v>
       </c>
       <c r="V43" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W43" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X43" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y43" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="AA44" s="16"/>
     </row>
-    <row r="45" ht="35" spans="1:27">
+    <row r="45" ht="24" spans="1:27">
       <c r="A45" s="9">
         <v>10</v>
       </c>
@@ -7001,11 +7001,11 @@
       </c>
       <c r="J45" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="16">
         <f t="shared" si="2"/>
@@ -7019,43 +7019,43 @@
       </c>
       <c r="O45" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002044</v>
+        <v/>
       </c>
       <c r="P45" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "thicket of rules and regulations" ?</v>
+        <v/>
       </c>
       <c r="Q45" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R45" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S45" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T45" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002044</v>
       </c>
       <c r="U45" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "thicket of rules and regulations" ?</v>
       </c>
       <c r="V45" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W45" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X45" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y45" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7093,11 +7093,11 @@
       </c>
       <c r="J46" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="16">
         <f t="shared" si="2"/>
@@ -7111,43 +7111,43 @@
       </c>
       <c r="O46" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002045</v>
       </c>
       <c r="P46" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a pride of lions" ?</v>
       </c>
       <c r="Q46" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R46" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S46" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T46" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002045</v>
+        <v/>
       </c>
       <c r="U46" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a pride of lions" ?</v>
+        <v/>
       </c>
       <c r="V46" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W46" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X46" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y46" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7277,11 +7277,11 @@
       </c>
       <c r="J48" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="16">
         <f t="shared" si="2"/>
@@ -7295,43 +7295,43 @@
       </c>
       <c r="O48" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002047</v>
       </c>
       <c r="P48" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a prick of conscience" ?</v>
       </c>
       <c r="Q48" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R48" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S48" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T48" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002047</v>
+        <v/>
       </c>
       <c r="U48" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a prick of conscience" ?</v>
+        <v/>
       </c>
       <c r="V48" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W48" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X48" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y48" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7369,11 +7369,11 @@
       </c>
       <c r="J49" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="16">
         <f t="shared" si="2"/>
@@ -7387,43 +7387,43 @@
       </c>
       <c r="O49" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002048</v>
+        <v/>
       </c>
       <c r="P49" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "not a scintilla of doubt" ?</v>
+        <v/>
       </c>
       <c r="Q49" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R49" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S49" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T49" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002048</v>
       </c>
       <c r="U49" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "not a scintilla of doubt" ?</v>
       </c>
       <c r="V49" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W49" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X49" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y49" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7553,11 +7553,11 @@
       </c>
       <c r="J51" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="16">
         <f t="shared" si="2"/>
@@ -7571,43 +7571,43 @@
       </c>
       <c r="O51" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002050</v>
       </c>
       <c r="P51" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "not a flicker of emotion" ?</v>
       </c>
       <c r="Q51" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R51" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S51" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T51" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002050</v>
+        <v/>
       </c>
       <c r="U51" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "not a flicker of emotion" ?</v>
+        <v/>
       </c>
       <c r="V51" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W51" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X51" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y51" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7645,11 +7645,11 @@
       </c>
       <c r="J52" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="2"/>
@@ -7663,43 +7663,43 @@
       </c>
       <c r="O52" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002051</v>
+        <v/>
       </c>
       <c r="P52" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "torrents of abuse" ?</v>
+        <v/>
       </c>
       <c r="Q52" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R52" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S52" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T52" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002051</v>
       </c>
       <c r="U52" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "torrents of abuse" ?</v>
       </c>
       <c r="V52" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W52" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X52" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y52" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7737,11 +7737,11 @@
       </c>
       <c r="J53" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="16">
         <f t="shared" si="2"/>
@@ -7755,43 +7755,43 @@
       </c>
       <c r="O53" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002052</v>
+        <v/>
       </c>
       <c r="P53" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "oceans of time" ?</v>
+        <v/>
       </c>
       <c r="Q53" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R53" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S53" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T53" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002052</v>
       </c>
       <c r="U53" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "oceans of time" ?</v>
       </c>
       <c r="V53" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W53" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X53" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y53" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7829,11 +7829,11 @@
       </c>
       <c r="J54" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="16">
         <f t="shared" si="2"/>
@@ -7847,43 +7847,43 @@
       </c>
       <c r="O54" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002053</v>
       </c>
       <c r="P54" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "You need a large dollop of luck to succeed" ?</v>
       </c>
       <c r="Q54" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R54" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S54" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T54" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002053</v>
+        <v/>
       </c>
       <c r="U54" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "You need a large dollop of luck to succeed" ?</v>
+        <v/>
       </c>
       <c r="V54" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W54" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X54" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y54" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7921,11 +7921,11 @@
       </c>
       <c r="J55" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="2"/>
@@ -7939,43 +7939,43 @@
       </c>
       <c r="O55" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002054</v>
+        <v/>
       </c>
       <c r="P55" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "roomful of guests" ?</v>
+        <v/>
       </c>
       <c r="Q55" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R55" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S55" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T55" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002054</v>
       </c>
       <c r="U55" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "roomful of guests" ?</v>
       </c>
       <c r="V55" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W55" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X55" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y55" s="16" t="str">
         <f t="shared" si="11"/>
@@ -8013,11 +8013,11 @@
       </c>
       <c r="J56" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="16">
         <f t="shared" si="2"/>
@@ -8031,43 +8031,43 @@
       </c>
       <c r="O56" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002055</v>
       </c>
       <c r="P56" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a tsunami of Covid cases" ?</v>
       </c>
       <c r="Q56" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R56" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S56" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T56" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002055</v>
+        <v/>
       </c>
       <c r="U56" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a tsunami of Covid cases" ?</v>
+        <v/>
       </c>
       <c r="V56" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W56" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X56" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y56" s="16" t="str">
         <f t="shared" si="11"/>
@@ -8105,11 +8105,11 @@
       </c>
       <c r="J57" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="16">
         <f t="shared" si="2"/>
@@ -8123,43 +8123,43 @@
       </c>
       <c r="O57" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002056</v>
       </c>
       <c r="P57" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "an avalanche of lawsuits" ?</v>
       </c>
       <c r="Q57" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R57" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S57" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T57" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002056</v>
+        <v/>
       </c>
       <c r="U57" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "an avalanche of lawsuits" ?</v>
+        <v/>
       </c>
       <c r="V57" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W57" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X57" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y57" s="16" t="str">
         <f t="shared" si="11"/>
@@ -8381,11 +8381,11 @@
       </c>
       <c r="J60" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="2"/>
@@ -8399,43 +8399,43 @@
       </c>
       <c r="O60" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21003059</v>
+        <v/>
       </c>
       <c r="P60" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "skyrocket" ?</v>
+        <v/>
       </c>
       <c r="Q60" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R60" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S60" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T60" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31003059</v>
       </c>
       <c r="U60" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "skyrocket" ?</v>
       </c>
       <c r="V60" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W60" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X60" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y60" s="16" t="str">
         <f t="shared" si="11"/>
@@ -8473,11 +8473,11 @@
       </c>
       <c r="J61" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="16">
         <f t="shared" si="2"/>
@@ -8491,43 +8491,43 @@
       </c>
       <c r="O61" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21003060</v>
+        <v/>
       </c>
       <c r="P61" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "inundated" ?</v>
+        <v/>
       </c>
       <c r="Q61" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R61" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S61" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T61" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31003060</v>
       </c>
       <c r="U61" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "inundated" ?</v>
       </c>
       <c r="V61" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W61" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X61" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y61" s="16" t="str">
         <f t="shared" si="11"/>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="AA61" s="16"/>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" ht="24" spans="1:27">
       <c r="A62" s="9">
         <v>10</v>
       </c>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="AA62" s="18"/>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" ht="24" spans="1:27">
       <c r="A63" s="9">
         <v>10</v>
       </c>
@@ -8749,11 +8749,11 @@
       </c>
       <c r="J64" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="16">
         <f t="shared" si="2"/>
@@ -8767,43 +8767,43 @@
       </c>
       <c r="O64" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21003063</v>
+        <v/>
       </c>
       <c r="P64" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "majestic" ?</v>
+        <v/>
       </c>
       <c r="Q64" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R64" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S64" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T64" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31003063</v>
       </c>
       <c r="U64" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "majestic" ?</v>
       </c>
       <c r="V64" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W64" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X64" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y64" s="16" t="str">
         <f t="shared" si="11"/>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="AA65" s="18"/>
     </row>
-    <row r="66" ht="35" spans="1:27">
+    <row r="66" ht="24" spans="1:27">
       <c r="A66" s="9">
         <v>10</v>
       </c>
@@ -8933,11 +8933,11 @@
       </c>
       <c r="J66" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="16">
         <f t="shared" si="2"/>
@@ -8951,43 +8951,43 @@
       </c>
       <c r="O66" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21003065</v>
+        <v/>
       </c>
       <c r="P66" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Infections are rising vertically" ?</v>
+        <v/>
       </c>
       <c r="Q66" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R66" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S66" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T66" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31003065</v>
       </c>
       <c r="U66" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Infections are rising vertically" ?</v>
       </c>
       <c r="V66" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W66" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X66" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y66" s="16" t="str">
         <f t="shared" si="11"/>
@@ -9025,11 +9025,11 @@
       </c>
       <c r="J67" s="16">
         <f ca="1" t="shared" ref="J67:J119" si="15">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="16">
         <f ca="1" t="shared" ref="K67:K119" si="16">IF(J67&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="16">
         <f t="shared" ref="L67:L119" si="17">IF(LEN(G67)&gt;30,0,1)</f>
@@ -9043,43 +9043,43 @@
       </c>
       <c r="O67" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21003066</v>
       </c>
       <c r="P67" s="16" t="str">
         <f ca="1" t="shared" ref="P67:P119" si="18">IF(J67=1,CONCATENATE("What is the concept of """,G67,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "miniscule details" ?</v>
       </c>
       <c r="Q67" s="16" t="str">
         <f ca="1" t="shared" ref="Q67:Q119" si="19">IF(J67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R67" s="16" t="str">
         <f ca="1" t="shared" ref="R67:R119" si="20">IF(J67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S67" s="16" t="str">
         <f ca="1" t="shared" ref="S67:S119" si="21">IF(J67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T67" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31003066</v>
+        <v/>
       </c>
       <c r="U67" s="16" t="str">
         <f ca="1" t="shared" ref="U67:U119" si="22">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v>What is the meaning of "miniscule details" ?</v>
+        <v/>
       </c>
       <c r="V67" s="16" t="str">
         <f ca="1" t="shared" ref="V67:V119" si="23">IF(K67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W67" s="16" t="str">
         <f ca="1" t="shared" ref="W67:W119" si="24">IF(K67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X67" s="16" t="str">
         <f ca="1" t="shared" ref="X67:X119" si="25">IF(K67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y67" s="16" t="str">
         <f t="shared" ref="Y67:Y119" si="26">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -9301,11 +9301,11 @@
       </c>
       <c r="J70" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="16">
         <f t="shared" si="17"/>
@@ -9319,43 +9319,43 @@
       </c>
       <c r="O70" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003069</v>
       </c>
       <c r="P70" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Boris lives to libel" ?</v>
       </c>
       <c r="Q70" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R70" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S70" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T70" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003069</v>
+        <v/>
       </c>
       <c r="U70" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Boris lives to libel" ?</v>
+        <v/>
       </c>
       <c r="V70" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W70" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X70" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y70" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9393,11 +9393,11 @@
       </c>
       <c r="J71" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="16">
         <f t="shared" si="17"/>
@@ -9411,43 +9411,43 @@
       </c>
       <c r="O71" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003070</v>
       </c>
       <c r="P71" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Jacinda's popularity is stratospheric" ?</v>
       </c>
       <c r="Q71" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R71" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S71" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T71" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003070</v>
+        <v/>
       </c>
       <c r="U71" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Jacinda's popularity is stratospheric" ?</v>
+        <v/>
       </c>
       <c r="V71" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W71" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X71" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y71" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9485,11 +9485,11 @@
       </c>
       <c r="J72" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="16">
         <f t="shared" si="17"/>
@@ -9503,43 +9503,43 @@
       </c>
       <c r="O72" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003071</v>
+        <v/>
       </c>
       <c r="P72" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Trump is lava-level mad" ?</v>
+        <v/>
       </c>
       <c r="Q72" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R72" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S72" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T72" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003071</v>
       </c>
       <c r="U72" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Trump is lava-level mad" ?</v>
       </c>
       <c r="V72" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W72" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X72" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y72" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9577,11 +9577,11 @@
       </c>
       <c r="J73" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="16">
         <f t="shared" si="17"/>
@@ -9595,43 +9595,43 @@
       </c>
       <c r="O73" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003072</v>
       </c>
       <c r="P73" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He plumbs new depths of idiocy" ?</v>
       </c>
       <c r="Q73" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R73" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S73" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T73" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003072</v>
+        <v/>
       </c>
       <c r="U73" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He plumbs new depths of idiocy" ?</v>
+        <v/>
       </c>
       <c r="V73" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W73" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X73" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y73" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9669,11 +9669,11 @@
       </c>
       <c r="J74" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="16">
         <f t="shared" si="17"/>
@@ -9687,43 +9687,43 @@
       </c>
       <c r="O74" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003073</v>
       </c>
       <c r="P74" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He has talent to burn" ?</v>
       </c>
       <c r="Q74" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R74" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S74" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T74" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003073</v>
+        <v/>
       </c>
       <c r="U74" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He has talent to burn" ?</v>
+        <v/>
       </c>
       <c r="V74" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W74" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X74" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y74" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9761,11 +9761,11 @@
       </c>
       <c r="J75" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="16">
         <f t="shared" si="17"/>
@@ -9779,43 +9779,43 @@
       </c>
       <c r="O75" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003074</v>
+        <v/>
       </c>
       <c r="P75" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "full-blown pandemic" ?</v>
+        <v/>
       </c>
       <c r="Q75" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R75" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S75" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T75" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003074</v>
       </c>
       <c r="U75" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "full-blown pandemic" ?</v>
       </c>
       <c r="V75" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W75" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X75" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y75" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9853,11 +9853,11 @@
       </c>
       <c r="J76" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="16">
         <f t="shared" si="17"/>
@@ -9871,43 +9871,43 @@
       </c>
       <c r="O76" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003075</v>
       </c>
       <c r="P76" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "tip-top" ?</v>
       </c>
       <c r="Q76" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R76" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S76" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T76" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003075</v>
+        <v/>
       </c>
       <c r="U76" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "tip-top" ?</v>
+        <v/>
       </c>
       <c r="V76" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W76" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X76" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y76" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9945,11 +9945,11 @@
       </c>
       <c r="J77" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="16">
         <f t="shared" si="17"/>
@@ -9963,43 +9963,43 @@
       </c>
       <c r="O77" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003076</v>
+        <v/>
       </c>
       <c r="P77" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "rock-bottom" ?</v>
+        <v/>
       </c>
       <c r="Q77" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R77" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S77" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T77" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003076</v>
       </c>
       <c r="U77" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "rock-bottom" ?</v>
       </c>
       <c r="V77" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W77" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X77" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y77" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10037,11 +10037,11 @@
       </c>
       <c r="J78" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="16">
         <f t="shared" si="17"/>
@@ -10055,43 +10055,43 @@
       </c>
       <c r="O78" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003077</v>
       </c>
       <c r="P78" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "the mother of all wars" ?</v>
       </c>
       <c r="Q78" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R78" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S78" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T78" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003077</v>
+        <v/>
       </c>
       <c r="U78" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "the mother of all wars" ?</v>
+        <v/>
       </c>
       <c r="V78" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W78" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X78" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y78" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10221,11 +10221,11 @@
       </c>
       <c r="J80" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="16">
         <f t="shared" si="17"/>
@@ -10239,43 +10239,43 @@
       </c>
       <c r="O80" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003079</v>
+        <v/>
       </c>
       <c r="P80" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "wafer-thin majority" ?</v>
+        <v/>
       </c>
       <c r="Q80" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R80" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S80" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T80" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003079</v>
       </c>
       <c r="U80" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "wafer-thin majority" ?</v>
       </c>
       <c r="V80" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W80" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X80" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y80" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10681,11 +10681,11 @@
       </c>
       <c r="J85" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="16">
         <f t="shared" si="17"/>
@@ -10699,43 +10699,43 @@
       </c>
       <c r="O85" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004084</v>
       </c>
       <c r="P85" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The floodgates opened" ?</v>
       </c>
       <c r="Q85" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R85" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S85" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T85" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004084</v>
+        <v/>
       </c>
       <c r="U85" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The floodgates opened" ?</v>
+        <v/>
       </c>
       <c r="V85" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W85" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X85" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y85" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10773,11 +10773,11 @@
       </c>
       <c r="J86" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="16">
         <f t="shared" si="17"/>
@@ -10791,43 +10791,43 @@
       </c>
       <c r="O86" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004085</v>
+        <v/>
       </c>
       <c r="P86" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "His reputation nose-dived" ?</v>
+        <v/>
       </c>
       <c r="Q86" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R86" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S86" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T86" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004085</v>
       </c>
       <c r="U86" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "His reputation nose-dived" ?</v>
       </c>
       <c r="V86" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W86" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X86" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y86" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11049,11 +11049,11 @@
       </c>
       <c r="J89" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="16">
         <f t="shared" si="17"/>
@@ -11067,43 +11067,43 @@
       </c>
       <c r="O89" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004088</v>
       </c>
       <c r="P89" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "yo-yo dieting" ?</v>
       </c>
       <c r="Q89" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R89" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S89" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T89" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004088</v>
+        <v/>
       </c>
       <c r="U89" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "yo-yo dieting" ?</v>
+        <v/>
       </c>
       <c r="V89" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W89" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X89" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y89" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="AA89" s="16"/>
     </row>
-    <row r="90" ht="24" spans="1:27">
+    <row r="90" ht="35" spans="1:27">
       <c r="A90" s="9">
         <v>10</v>
       </c>
@@ -11141,11 +11141,11 @@
       </c>
       <c r="J90" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="16">
         <f t="shared" si="17"/>
@@ -11159,43 +11159,43 @@
       </c>
       <c r="O90" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004089</v>
       </c>
       <c r="P90" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He was turned into a footnote in history" ?</v>
       </c>
       <c r="Q90" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R90" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S90" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T90" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004089</v>
+        <v/>
       </c>
       <c r="U90" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He was turned into a footnote in history" ?</v>
+        <v/>
       </c>
       <c r="V90" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W90" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X90" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y90" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="AA91" s="16"/>
     </row>
-    <row r="92" ht="35" spans="1:27">
+    <row r="92" ht="24" spans="1:27">
       <c r="A92" s="9">
         <v>10</v>
       </c>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="AA92" s="16"/>
     </row>
-    <row r="93" ht="24" spans="1:27">
+    <row r="93" ht="35" spans="1:27">
       <c r="A93" s="9">
         <v>10</v>
       </c>
@@ -11417,11 +11417,11 @@
       </c>
       <c r="J93" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="16">
         <f t="shared" si="17"/>
@@ -11435,43 +11435,43 @@
       </c>
       <c r="O93" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004092</v>
       </c>
       <c r="P93" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Where the rubber meets the road" ?</v>
       </c>
       <c r="Q93" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R93" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S93" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T93" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004092</v>
+        <v/>
       </c>
       <c r="U93" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Where the rubber meets the road" ?</v>
+        <v/>
       </c>
       <c r="V93" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W93" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X93" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y93" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11601,11 +11601,11 @@
       </c>
       <c r="J95" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="16">
         <f t="shared" si="17"/>
@@ -11619,43 +11619,43 @@
       </c>
       <c r="O95" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004094</v>
+        <v/>
       </c>
       <c r="P95" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "helicopter parents" ?</v>
+        <v/>
       </c>
       <c r="Q95" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R95" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S95" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T95" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004094</v>
       </c>
       <c r="U95" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "helicopter parents" ?</v>
       </c>
       <c r="V95" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W95" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X95" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y95" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11693,11 +11693,11 @@
       </c>
       <c r="J96" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="16">
         <f t="shared" si="17"/>
@@ -11711,43 +11711,43 @@
       </c>
       <c r="O96" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004095</v>
+        <v/>
       </c>
       <c r="P96" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "I have reached the end of the tether" ?</v>
+        <v/>
       </c>
       <c r="Q96" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R96" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S96" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T96" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004095</v>
       </c>
       <c r="U96" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "I have reached the end of the tether" ?</v>
       </c>
       <c r="V96" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W96" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X96" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y96" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11969,11 +11969,11 @@
       </c>
       <c r="J99" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="16">
         <f t="shared" si="17"/>
@@ -11987,43 +11987,43 @@
       </c>
       <c r="O99" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004098</v>
+        <v/>
       </c>
       <c r="P99" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "dog-whistle politics" ?</v>
+        <v/>
       </c>
       <c r="Q99" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R99" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S99" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T99" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004098</v>
       </c>
       <c r="U99" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "dog-whistle politics" ?</v>
       </c>
       <c r="V99" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W99" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X99" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y99" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12245,11 +12245,11 @@
       </c>
       <c r="J102" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="16">
         <f t="shared" si="17"/>
@@ -12263,43 +12263,43 @@
       </c>
       <c r="O102" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004101</v>
       </c>
       <c r="P102" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The election is on a knife’s edge" ?</v>
       </c>
       <c r="Q102" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R102" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S102" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T102" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004101</v>
+        <v/>
       </c>
       <c r="U102" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The election is on a knife’s edge" ?</v>
+        <v/>
       </c>
       <c r="V102" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W102" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X102" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y102" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="AA105" s="18"/>
     </row>
-    <row r="106" ht="24" spans="1:27">
+    <row r="106" ht="35" spans="1:27">
       <c r="A106" s="9">
         <v>10</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="AA106" s="18"/>
     </row>
-    <row r="107" ht="35" spans="1:27">
+    <row r="107" ht="24" spans="1:27">
       <c r="A107" s="9">
         <v>10</v>
       </c>
@@ -12797,11 +12797,11 @@
       </c>
       <c r="J108" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" s="16">
         <f t="shared" si="17"/>
@@ -12815,43 +12815,43 @@
       </c>
       <c r="O108" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004107</v>
       </c>
       <c r="P108" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The police are on his tail" ?</v>
       </c>
       <c r="Q108" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R108" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S108" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T108" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004107</v>
+        <v/>
       </c>
       <c r="U108" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The police are on his tail" ?</v>
+        <v/>
       </c>
       <c r="V108" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W108" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X108" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y108" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="AA108" s="18"/>
     </row>
-    <row r="109" ht="35" spans="1:27">
+    <row r="109" ht="24" spans="1:27">
       <c r="A109" s="9">
         <v>10</v>
       </c>
@@ -12889,11 +12889,11 @@
       </c>
       <c r="J109" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="16">
         <f t="shared" si="17"/>
@@ -12907,43 +12907,43 @@
       </c>
       <c r="O109" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004108</v>
+        <v/>
       </c>
       <c r="P109" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Angelina Jolie’s bee-stung lips" ?</v>
+        <v/>
       </c>
       <c r="Q109" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R109" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S109" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T109" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004108</v>
       </c>
       <c r="U109" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Angelina Jolie’s bee-stung lips" ?</v>
       </c>
       <c r="V109" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W109" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X109" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y109" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="AA109" s="18"/>
     </row>
-    <row r="110" ht="47" spans="1:27">
+    <row r="110" ht="35" spans="1:27">
       <c r="A110" s="9">
         <v>10</v>
       </c>
@@ -12981,11 +12981,11 @@
       </c>
       <c r="J110" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="16">
         <f t="shared" si="17"/>
@@ -12999,43 +12999,43 @@
       </c>
       <c r="O110" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004109</v>
+        <v/>
       </c>
       <c r="P110" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The most important step in diplomacy is the last 3 feet---face-to-face" ?</v>
+        <v/>
       </c>
       <c r="Q110" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R110" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S110" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T110" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004109</v>
       </c>
       <c r="U110" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The most important step in diplomacy is the last 3 feet---face-to-face" ?</v>
       </c>
       <c r="V110" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W110" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X110" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y110" s="16" t="str">
         <f t="shared" si="26"/>
@@ -13073,11 +13073,11 @@
       </c>
       <c r="J111" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="16">
         <f t="shared" si="17"/>
@@ -13091,43 +13091,43 @@
       </c>
       <c r="O111" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004110</v>
       </c>
       <c r="P111" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "live vertically or horizontally" ?</v>
       </c>
       <c r="Q111" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R111" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S111" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T111" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004110</v>
+        <v/>
       </c>
       <c r="U111" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "live vertically or horizontally" ?</v>
+        <v/>
       </c>
       <c r="V111" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W111" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X111" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y111" s="16" t="str">
         <f t="shared" si="26"/>
@@ -13257,11 +13257,11 @@
       </c>
       <c r="J113" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" s="16">
         <f t="shared" si="17"/>
@@ -13275,43 +13275,43 @@
       </c>
       <c r="O113" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004112</v>
       </c>
       <c r="P113" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "US immigration policy: tall fence and wide gates" ?</v>
       </c>
       <c r="Q113" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R113" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S113" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T113" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004112</v>
+        <v/>
       </c>
       <c r="U113" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "US immigration policy: tall fence and wide gates" ?</v>
+        <v/>
       </c>
       <c r="V113" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W113" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X113" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y113" s="16" t="str">
         <f t="shared" si="26"/>
@@ -13809,11 +13809,11 @@
       </c>
       <c r="J119" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="16">
         <f t="shared" si="17"/>
@@ -13827,43 +13827,43 @@
       </c>
       <c r="O119" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004118</v>
+        <v/>
       </c>
       <c r="P119" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Hillary is a coin-operated policymaker" ?</v>
+        <v/>
       </c>
       <c r="Q119" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R119" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S119" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T119" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004118</v>
       </c>
       <c r="U119" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Hillary is a coin-operated policymaker" ?</v>
       </c>
       <c r="V119" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W119" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X119" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y119" s="16" t="str">
         <f t="shared" si="26"/>

--- a/miniproject/template/Lectures/Lecture 10.xlsx
+++ b/miniproject/template/Lectures/Lecture 10.xlsx
@@ -40,7 +40,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <t>Meaning（中文）</t>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -1816,9 +1816,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1875,16 +1875,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1903,41 +1911,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1957,8 +1943,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1987,29 +1989,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -2017,9 +1996,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2052,13 +2052,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,7 +2088,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,67 +2172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,6 +2190,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2172,67 +2220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2305,8 +2305,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2350,17 +2350,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2380,170 +2376,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2911,7 +2911,7 @@
   <dimension ref="A1:AA181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88392857142857" defaultRowHeight="12.4"/>
@@ -3045,11 +3045,11 @@
       </c>
       <c r="J2" s="16">
         <f ca="1">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="16">
         <f ca="1">IF(J2&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="16">
         <f>IF(LEN(G2)&gt;30,0,1)</f>
@@ -3063,43 +3063,43 @@
       </c>
       <c r="O2" s="16" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("L2",$M4),"")</f>
-        <v/>
+        <v>L20</v>
       </c>
       <c r="P2" s="16" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("What is the concept of """,G2,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "through thick and thin" ?</v>
       </c>
       <c r="Q2" s="16" t="str">
         <f ca="1">IF(J2=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R2" s="16" t="str">
         <f ca="1">IF(J2=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S2" s="16" t="str">
         <f ca="1">IF(J2=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T2" s="16" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("L3",$F2),"")</f>
-        <v>L31001001</v>
+        <v/>
       </c>
       <c r="U2" s="16" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("What is the meaning of """,G2,""" ?"),"")</f>
-        <v>What is the meaning of "through thick and thin" ?</v>
+        <v/>
       </c>
       <c r="V2" s="16" t="str">
         <f ca="1">IF(K2=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W2" s="16" t="str">
         <f ca="1">IF(K2=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X2" s="16" t="str">
         <f ca="1">IF(K2=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y2" s="16" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -3229,11 +3229,11 @@
       </c>
       <c r="J4" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="2"/>
@@ -3247,43 +3247,43 @@
       </c>
       <c r="O4" s="16" t="str">
         <f ca="1" t="shared" ref="O4:O67" si="13">IF(J4=1,CONCATENATE("L2",$F4),"")</f>
-        <v/>
+        <v>L21001003</v>
       </c>
       <c r="P4" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "The parents use the carrot and stick approach" ?</v>
       </c>
       <c r="Q4" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R4" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S4" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T4" s="16" t="str">
         <f ca="1" t="shared" ref="T4:T67" si="14">IF(K4=1,CONCATENATE("L3",$F4),"")</f>
-        <v>L31001003</v>
+        <v/>
       </c>
       <c r="U4" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "The parents use the carrot and stick approach" ?</v>
+        <v/>
       </c>
       <c r="V4" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W4" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X4" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y4" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3321,11 +3321,11 @@
       </c>
       <c r="J5" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="2"/>
@@ -3339,43 +3339,43 @@
       </c>
       <c r="O5" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001004</v>
       </c>
       <c r="P5" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "neither fish nor fowl" ?</v>
       </c>
       <c r="Q5" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R5" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S5" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T5" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001004</v>
+        <v/>
       </c>
       <c r="U5" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "neither fish nor fowl" ?</v>
+        <v/>
       </c>
       <c r="V5" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W5" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X5" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y5" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3689,11 +3689,11 @@
       </c>
       <c r="J9" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="2"/>
@@ -3707,43 +3707,43 @@
       </c>
       <c r="O9" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001008</v>
+        <v/>
       </c>
       <c r="P9" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "I know the whole thing chapter and verse. " ?</v>
+        <v/>
       </c>
       <c r="Q9" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R9" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S9" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T9" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001008</v>
       </c>
       <c r="U9" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "I know the whole thing chapter and verse. " ?</v>
       </c>
       <c r="V9" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W9" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X9" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y9" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="AA9" s="16"/>
     </row>
-    <row r="10" ht="47" spans="1:27">
+    <row r="10" ht="58" spans="1:27">
       <c r="A10" s="9">
         <v>10</v>
       </c>
@@ -3781,11 +3781,11 @@
       </c>
       <c r="J10" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="2"/>
@@ -3799,43 +3799,43 @@
       </c>
       <c r="O10" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001009</v>
       </c>
       <c r="P10" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "His new house has got all the bells and whistles—a whirl pool, sauna room and exercise equipment" ?</v>
       </c>
       <c r="Q10" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R10" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S10" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T10" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001009</v>
+        <v/>
       </c>
       <c r="U10" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "His new house has got all the bells and whistles—a whirl pool, sauna room and exercise equipment" ?</v>
+        <v/>
       </c>
       <c r="V10" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W10" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X10" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y10" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3873,11 +3873,11 @@
       </c>
       <c r="J11" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="2"/>
@@ -3891,43 +3891,43 @@
       </c>
       <c r="O11" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001010</v>
+        <v/>
       </c>
       <c r="P11" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "You can’t compare apples and oranges" ?</v>
+        <v/>
       </c>
       <c r="Q11" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R11" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S11" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T11" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001010</v>
       </c>
       <c r="U11" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "You can’t compare apples and oranges" ?</v>
       </c>
       <c r="V11" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W11" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X11" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y11" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3965,11 +3965,11 @@
       </c>
       <c r="J12" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="2"/>
@@ -3983,43 +3983,43 @@
       </c>
       <c r="O12" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001011</v>
       </c>
       <c r="P12" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "I want the terms spelled out in black and white" ?</v>
       </c>
       <c r="Q12" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R12" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S12" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T12" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001011</v>
+        <v/>
       </c>
       <c r="U12" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I want the terms spelled out in black and white" ?</v>
+        <v/>
       </c>
       <c r="V12" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W12" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X12" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y12" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4057,11 +4057,11 @@
       </c>
       <c r="J13" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="2"/>
@@ -4075,43 +4075,43 @@
       </c>
       <c r="O13" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001012</v>
+        <v/>
       </c>
       <c r="P13" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "You need to know the nuts and bolts of the business" ?</v>
+        <v/>
       </c>
       <c r="Q13" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R13" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S13" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T13" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001012</v>
       </c>
       <c r="U13" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "You need to know the nuts and bolts of the business" ?</v>
       </c>
       <c r="V13" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W13" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X13" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y13" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="AA13" s="18"/>
     </row>
-    <row r="14" ht="24" spans="1:27">
+    <row r="14" ht="35" spans="1:27">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -4241,11 +4241,11 @@
       </c>
       <c r="J15" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="2"/>
@@ -4259,43 +4259,43 @@
       </c>
       <c r="O15" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21001014</v>
+        <v/>
       </c>
       <c r="P15" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "salt and pepper hair" ?</v>
+        <v/>
       </c>
       <c r="Q15" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R15" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S15" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T15" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31001014</v>
       </c>
       <c r="U15" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "salt and pepper hair" ?</v>
       </c>
       <c r="V15" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W15" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X15" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y15" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4333,11 +4333,11 @@
       </c>
       <c r="J16" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="2"/>
@@ -4351,43 +4351,43 @@
       </c>
       <c r="O16" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21001015</v>
       </c>
       <c r="P16" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "full of piss and vinegar  " ?</v>
       </c>
       <c r="Q16" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R16" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S16" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T16" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31001015</v>
+        <v/>
       </c>
       <c r="U16" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "full of piss and vinegar  " ?</v>
+        <v/>
       </c>
       <c r="V16" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W16" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X16" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y16" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="AA17" s="18"/>
     </row>
-    <row r="18" ht="24" spans="1:27">
+    <row r="18" ht="35" spans="1:27">
       <c r="A18" s="9">
         <v>10</v>
       </c>
@@ -4517,11 +4517,11 @@
       </c>
       <c r="J18" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="2"/>
@@ -4535,43 +4535,43 @@
       </c>
       <c r="O18" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002017</v>
       </c>
       <c r="P18" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "I didn’t sleep a wink last night" ?</v>
       </c>
       <c r="Q18" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R18" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S18" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T18" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002017</v>
+        <v/>
       </c>
       <c r="U18" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I didn’t sleep a wink last night" ?</v>
+        <v/>
       </c>
       <c r="V18" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W18" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X18" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y18" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="AA18" s="16"/>
     </row>
-    <row r="19" ht="35" spans="1:27">
+    <row r="19" ht="24" spans="1:27">
       <c r="A19" s="9">
         <v>10</v>
       </c>
@@ -4701,11 +4701,11 @@
       </c>
       <c r="J20" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="2"/>
@@ -4719,43 +4719,43 @@
       </c>
       <c r="O20" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002019</v>
       </c>
       <c r="P20" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a flurry of phonecalls" ?</v>
       </c>
       <c r="Q20" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R20" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S20" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T20" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002019</v>
+        <v/>
       </c>
       <c r="U20" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a flurry of phonecalls" ?</v>
+        <v/>
       </c>
       <c r="V20" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W20" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X20" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y20" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4885,11 +4885,11 @@
       </c>
       <c r="J22" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="2"/>
@@ -4903,43 +4903,43 @@
       </c>
       <c r="O22" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002021</v>
       </c>
       <c r="P22" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "It won’t make a scratch of difference" ?</v>
       </c>
       <c r="Q22" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R22" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S22" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T22" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002021</v>
+        <v/>
       </c>
       <c r="U22" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "It won’t make a scratch of difference" ?</v>
+        <v/>
       </c>
       <c r="V22" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W22" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X22" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y22" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5069,11 +5069,11 @@
       </c>
       <c r="J24" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="2"/>
@@ -5087,43 +5087,43 @@
       </c>
       <c r="O24" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002023</v>
+        <v/>
       </c>
       <c r="P24" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "bad run of luck" ?</v>
+        <v/>
       </c>
       <c r="Q24" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R24" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S24" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T24" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002023</v>
       </c>
       <c r="U24" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "bad run of luck" ?</v>
       </c>
       <c r="V24" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W24" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X24" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y24" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5253,11 +5253,11 @@
       </c>
       <c r="J26" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="2"/>
@@ -5271,43 +5271,43 @@
       </c>
       <c r="O26" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002025</v>
+        <v/>
       </c>
       <c r="P26" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "an ounce of common sense" ?</v>
+        <v/>
       </c>
       <c r="Q26" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R26" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S26" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T26" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002025</v>
       </c>
       <c r="U26" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "an ounce of common sense" ?</v>
       </c>
       <c r="V26" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W26" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X26" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y26" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5437,11 +5437,11 @@
       </c>
       <c r="J28" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="2"/>
@@ -5455,43 +5455,43 @@
       </c>
       <c r="O28" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002027</v>
       </c>
       <c r="P28" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a legion of grammar issues" ?</v>
       </c>
       <c r="Q28" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R28" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S28" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T28" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002027</v>
+        <v/>
       </c>
       <c r="U28" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a legion of grammar issues" ?</v>
+        <v/>
       </c>
       <c r="V28" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W28" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X28" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y28" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5805,11 +5805,11 @@
       </c>
       <c r="J32" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="2"/>
@@ -5823,43 +5823,43 @@
       </c>
       <c r="O32" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002031</v>
+        <v/>
       </c>
       <c r="P32" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a slice of Britishness" ?</v>
+        <v/>
       </c>
       <c r="Q32" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R32" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S32" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T32" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002031</v>
       </c>
       <c r="U32" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a slice of Britishness" ?</v>
       </c>
       <c r="V32" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W32" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X32" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y32" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5897,11 +5897,11 @@
       </c>
       <c r="J33" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="2"/>
@@ -5915,43 +5915,43 @@
       </c>
       <c r="O33" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002032</v>
       </c>
       <c r="P33" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "tons of talent" ?</v>
       </c>
       <c r="Q33" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R33" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S33" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T33" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002032</v>
+        <v/>
       </c>
       <c r="U33" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "tons of talent" ?</v>
+        <v/>
       </c>
       <c r="V33" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W33" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X33" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y33" s="16" t="str">
         <f t="shared" si="11"/>
@@ -5989,11 +5989,11 @@
       </c>
       <c r="J34" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="2"/>
@@ -6007,43 +6007,43 @@
       </c>
       <c r="O34" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002033</v>
       </c>
       <c r="P34" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "pots of cash" ?</v>
       </c>
       <c r="Q34" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R34" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S34" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T34" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002033</v>
+        <v/>
       </c>
       <c r="U34" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "pots of cash" ?</v>
+        <v/>
       </c>
       <c r="V34" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W34" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X34" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y34" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6081,11 +6081,11 @@
       </c>
       <c r="J35" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="2"/>
@@ -6099,43 +6099,43 @@
       </c>
       <c r="O35" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002034</v>
       </c>
       <c r="P35" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "truckloads of evidence " ?</v>
       </c>
       <c r="Q35" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R35" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S35" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T35" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002034</v>
+        <v/>
       </c>
       <c r="U35" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "truckloads of evidence " ?</v>
+        <v/>
       </c>
       <c r="V35" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W35" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X35" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y35" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6173,11 +6173,11 @@
       </c>
       <c r="J36" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="2"/>
@@ -6191,43 +6191,43 @@
       </c>
       <c r="O36" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002035</v>
       </c>
       <c r="P36" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "UIC's new crop of graduates" ?</v>
       </c>
       <c r="Q36" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R36" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S36" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T36" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002035</v>
+        <v/>
       </c>
       <c r="U36" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "UIC's new crop of graduates" ?</v>
+        <v/>
       </c>
       <c r="V36" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W36" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X36" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y36" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6265,11 +6265,11 @@
       </c>
       <c r="J37" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="2"/>
@@ -6283,43 +6283,43 @@
       </c>
       <c r="O37" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002036</v>
       </c>
       <c r="P37" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a dose of reality" ?</v>
       </c>
       <c r="Q37" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R37" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S37" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T37" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002036</v>
+        <v/>
       </c>
       <c r="U37" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a dose of reality" ?</v>
+        <v/>
       </c>
       <c r="V37" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W37" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X37" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y37" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6357,11 +6357,11 @@
       </c>
       <c r="J38" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="2"/>
@@ -6375,43 +6375,43 @@
       </c>
       <c r="O38" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002037</v>
+        <v/>
       </c>
       <c r="P38" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "chorus of criticism" ?</v>
+        <v/>
       </c>
       <c r="Q38" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R38" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S38" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T38" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002037</v>
       </c>
       <c r="U38" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "chorus of criticism" ?</v>
       </c>
       <c r="V38" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W38" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X38" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y38" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6633,11 +6633,11 @@
       </c>
       <c r="J41" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="2"/>
@@ -6651,43 +6651,43 @@
       </c>
       <c r="O41" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002040</v>
       </c>
       <c r="P41" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "without a whiff of scandal" ?</v>
       </c>
       <c r="Q41" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R41" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S41" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T41" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002040</v>
+        <v/>
       </c>
       <c r="U41" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "without a whiff of scandal" ?</v>
+        <v/>
       </c>
       <c r="V41" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W41" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X41" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y41" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6725,11 +6725,11 @@
       </c>
       <c r="J42" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="2"/>
@@ -6743,43 +6743,43 @@
       </c>
       <c r="O42" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002041</v>
+        <v/>
       </c>
       <c r="P42" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "a morsel of truth" ?</v>
+        <v/>
       </c>
       <c r="Q42" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R42" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S42" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T42" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002041</v>
       </c>
       <c r="U42" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "a morsel of truth" ?</v>
       </c>
       <c r="V42" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W42" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X42" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y42" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6817,11 +6817,11 @@
       </c>
       <c r="J43" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="16">
         <f t="shared" si="2"/>
@@ -6835,43 +6835,43 @@
       </c>
       <c r="O43" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002042</v>
       </c>
       <c r="P43" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "an attack of awkwardness" ?</v>
       </c>
       <c r="Q43" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R43" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S43" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T43" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002042</v>
+        <v/>
       </c>
       <c r="U43" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "an attack of awkwardness" ?</v>
+        <v/>
       </c>
       <c r="V43" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W43" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X43" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y43" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6909,11 +6909,11 @@
       </c>
       <c r="J44" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="16">
         <f t="shared" si="2"/>
@@ -6927,43 +6927,43 @@
       </c>
       <c r="O44" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21002043</v>
+        <v/>
       </c>
       <c r="P44" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "reams of data" ?</v>
+        <v/>
       </c>
       <c r="Q44" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R44" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S44" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T44" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31002043</v>
       </c>
       <c r="U44" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "reams of data" ?</v>
       </c>
       <c r="V44" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W44" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X44" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y44" s="16" t="str">
         <f t="shared" si="11"/>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="AA44" s="16"/>
     </row>
-    <row r="45" ht="24" spans="1:27">
+    <row r="45" ht="35" spans="1:27">
       <c r="A45" s="9">
         <v>10</v>
       </c>
@@ -7185,11 +7185,11 @@
       </c>
       <c r="J47" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="16">
         <f t="shared" si="2"/>
@@ -7203,43 +7203,43 @@
       </c>
       <c r="O47" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002046</v>
       </c>
       <c r="P47" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "a slice of life" ?</v>
       </c>
       <c r="Q47" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R47" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S47" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T47" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002046</v>
+        <v/>
       </c>
       <c r="U47" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "a slice of life" ?</v>
+        <v/>
       </c>
       <c r="V47" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W47" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X47" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y47" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7369,11 +7369,11 @@
       </c>
       <c r="J49" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="16">
         <f t="shared" si="2"/>
@@ -7387,43 +7387,43 @@
       </c>
       <c r="O49" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002048</v>
       </c>
       <c r="P49" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "not a scintilla of doubt" ?</v>
       </c>
       <c r="Q49" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R49" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S49" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T49" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002048</v>
+        <v/>
       </c>
       <c r="U49" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "not a scintilla of doubt" ?</v>
+        <v/>
       </c>
       <c r="V49" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W49" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X49" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y49" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7645,11 +7645,11 @@
       </c>
       <c r="J52" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="2"/>
@@ -7663,43 +7663,43 @@
       </c>
       <c r="O52" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002051</v>
       </c>
       <c r="P52" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "torrents of abuse" ?</v>
       </c>
       <c r="Q52" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R52" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S52" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T52" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002051</v>
+        <v/>
       </c>
       <c r="U52" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "torrents of abuse" ?</v>
+        <v/>
       </c>
       <c r="V52" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W52" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X52" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y52" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7737,11 +7737,11 @@
       </c>
       <c r="J53" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="16">
         <f t="shared" si="2"/>
@@ -7755,43 +7755,43 @@
       </c>
       <c r="O53" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002052</v>
       </c>
       <c r="P53" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "oceans of time" ?</v>
       </c>
       <c r="Q53" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R53" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S53" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T53" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002052</v>
+        <v/>
       </c>
       <c r="U53" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "oceans of time" ?</v>
+        <v/>
       </c>
       <c r="V53" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W53" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X53" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y53" s="16" t="str">
         <f t="shared" si="11"/>
@@ -7921,11 +7921,11 @@
       </c>
       <c r="J55" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="2"/>
@@ -7939,43 +7939,43 @@
       </c>
       <c r="O55" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21002054</v>
       </c>
       <c r="P55" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "roomful of guests" ?</v>
       </c>
       <c r="Q55" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R55" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S55" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T55" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31002054</v>
+        <v/>
       </c>
       <c r="U55" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "roomful of guests" ?</v>
+        <v/>
       </c>
       <c r="V55" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W55" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X55" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y55" s="16" t="str">
         <f t="shared" si="11"/>
@@ -8381,11 +8381,11 @@
       </c>
       <c r="J60" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="2"/>
@@ -8399,43 +8399,43 @@
       </c>
       <c r="O60" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21003059</v>
       </c>
       <c r="P60" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "skyrocket" ?</v>
       </c>
       <c r="Q60" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R60" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S60" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T60" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31003059</v>
+        <v/>
       </c>
       <c r="U60" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "skyrocket" ?</v>
+        <v/>
       </c>
       <c r="V60" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W60" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X60" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y60" s="16" t="str">
         <f t="shared" si="11"/>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="AA63" s="18"/>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" ht="24" spans="1:27">
       <c r="A64" s="9">
         <v>10</v>
       </c>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="AA65" s="18"/>
     </row>
-    <row r="66" ht="24" spans="1:27">
+    <row r="66" ht="35" spans="1:27">
       <c r="A66" s="9">
         <v>10</v>
       </c>
@@ -8933,11 +8933,11 @@
       </c>
       <c r="J66" s="16">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="16">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="16">
         <f t="shared" si="2"/>
@@ -8951,43 +8951,43 @@
       </c>
       <c r="O66" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L21003065</v>
       </c>
       <c r="P66" s="16" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Infections are rising vertically" ?</v>
       </c>
       <c r="Q66" s="16" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R66" s="16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S66" s="16" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T66" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L31003065</v>
+        <v/>
       </c>
       <c r="U66" s="16" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Infections are rising vertically" ?</v>
+        <v/>
       </c>
       <c r="V66" s="16" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W66" s="16" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X66" s="16" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y66" s="16" t="str">
         <f t="shared" si="11"/>
@@ -9025,11 +9025,11 @@
       </c>
       <c r="J67" s="16">
         <f ca="1" t="shared" ref="J67:J119" si="15">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="16">
         <f ca="1" t="shared" ref="K67:K119" si="16">IF(J67&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="16">
         <f t="shared" ref="L67:L119" si="17">IF(LEN(G67)&gt;30,0,1)</f>
@@ -9043,43 +9043,43 @@
       </c>
       <c r="O67" s="16" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L21003066</v>
+        <v/>
       </c>
       <c r="P67" s="16" t="str">
         <f ca="1" t="shared" ref="P67:P119" si="18">IF(J67=1,CONCATENATE("What is the concept of """,G67,""" ?"),"")</f>
-        <v>What is the concept of "miniscule details" ?</v>
+        <v/>
       </c>
       <c r="Q67" s="16" t="str">
         <f ca="1" t="shared" ref="Q67:Q119" si="19">IF(J67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R67" s="16" t="str">
         <f ca="1" t="shared" ref="R67:R119" si="20">IF(J67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S67" s="16" t="str">
         <f ca="1" t="shared" ref="S67:S119" si="21">IF(J67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T67" s="16" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L31003066</v>
       </c>
       <c r="U67" s="16" t="str">
         <f ca="1" t="shared" ref="U67:U119" si="22">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "miniscule details" ?</v>
       </c>
       <c r="V67" s="16" t="str">
         <f ca="1" t="shared" ref="V67:V119" si="23">IF(K67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W67" s="16" t="str">
         <f ca="1" t="shared" ref="W67:W119" si="24">IF(K67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X67" s="16" t="str">
         <f ca="1" t="shared" ref="X67:X119" si="25">IF(K67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y67" s="16" t="str">
         <f t="shared" ref="Y67:Y119" si="26">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -9367,7 +9367,7 @@
       </c>
       <c r="AA70" s="16"/>
     </row>
-    <row r="71" ht="35" spans="1:27">
+    <row r="71" ht="24" spans="1:27">
       <c r="A71" s="9">
         <v>10</v>
       </c>
@@ -9393,11 +9393,11 @@
       </c>
       <c r="J71" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="16">
         <f t="shared" si="17"/>
@@ -9411,43 +9411,43 @@
       </c>
       <c r="O71" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003070</v>
+        <v/>
       </c>
       <c r="P71" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Jacinda's popularity is stratospheric" ?</v>
+        <v/>
       </c>
       <c r="Q71" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R71" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S71" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T71" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003070</v>
       </c>
       <c r="U71" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Jacinda's popularity is stratospheric" ?</v>
       </c>
       <c r="V71" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W71" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X71" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y71" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="AA72" s="16"/>
     </row>
-    <row r="73" ht="35" spans="1:27">
+    <row r="73" ht="24" spans="1:27">
       <c r="A73" s="9">
         <v>10</v>
       </c>
@@ -9669,11 +9669,11 @@
       </c>
       <c r="J74" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="16">
         <f t="shared" si="17"/>
@@ -9687,43 +9687,43 @@
       </c>
       <c r="O74" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21003073</v>
+        <v/>
       </c>
       <c r="P74" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He has talent to burn" ?</v>
+        <v/>
       </c>
       <c r="Q74" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R74" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S74" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T74" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31003073</v>
       </c>
       <c r="U74" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He has talent to burn" ?</v>
       </c>
       <c r="V74" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W74" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X74" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y74" s="16" t="str">
         <f t="shared" si="26"/>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="AA75" s="16"/>
     </row>
-    <row r="76" ht="24" spans="1:27">
+    <row r="76" spans="1:27">
       <c r="A76" s="9">
         <v>10</v>
       </c>
@@ -10129,11 +10129,11 @@
       </c>
       <c r="J79" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="16">
         <f t="shared" si="17"/>
@@ -10147,43 +10147,43 @@
       </c>
       <c r="O79" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21003078</v>
       </c>
       <c r="P79" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "She was born to shop." ?</v>
       </c>
       <c r="Q79" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R79" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S79" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T79" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31003078</v>
+        <v/>
       </c>
       <c r="U79" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "She was born to shop." ?</v>
+        <v/>
       </c>
       <c r="V79" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W79" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X79" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y79" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10313,11 +10313,11 @@
       </c>
       <c r="J81" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="16">
         <f t="shared" si="17"/>
@@ -10331,43 +10331,43 @@
       </c>
       <c r="O81" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004080</v>
+        <v/>
       </c>
       <c r="P81" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "threading a needle" ?</v>
+        <v/>
       </c>
       <c r="Q81" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R81" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S81" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T81" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004080</v>
       </c>
       <c r="U81" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "threading a needle" ?</v>
       </c>
       <c r="V81" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W81" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X81" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y81" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10405,11 +10405,11 @@
       </c>
       <c r="J82" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="16">
         <f t="shared" si="17"/>
@@ -10423,43 +10423,43 @@
       </c>
       <c r="O82" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004081</v>
       </c>
       <c r="P82" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "You are in my crosshairs" ?</v>
       </c>
       <c r="Q82" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R82" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S82" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T82" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004081</v>
+        <v/>
       </c>
       <c r="U82" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "You are in my crosshairs" ?</v>
+        <v/>
       </c>
       <c r="V82" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W82" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X82" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y82" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10497,11 +10497,11 @@
       </c>
       <c r="J83" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="16">
         <f t="shared" si="17"/>
@@ -10515,43 +10515,43 @@
       </c>
       <c r="O83" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004082</v>
       </c>
       <c r="P83" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "watch the grass grow under your feet" ?</v>
       </c>
       <c r="Q83" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R83" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S83" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T83" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004082</v>
+        <v/>
       </c>
       <c r="U83" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "watch the grass grow under your feet" ?</v>
+        <v/>
       </c>
       <c r="V83" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W83" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X83" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y83" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10681,11 +10681,11 @@
       </c>
       <c r="J85" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="16">
         <f t="shared" si="17"/>
@@ -10699,43 +10699,43 @@
       </c>
       <c r="O85" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004084</v>
+        <v/>
       </c>
       <c r="P85" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The floodgates opened" ?</v>
+        <v/>
       </c>
       <c r="Q85" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R85" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S85" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T85" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004084</v>
       </c>
       <c r="U85" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The floodgates opened" ?</v>
       </c>
       <c r="V85" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W85" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X85" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y85" s="16" t="str">
         <f t="shared" si="26"/>
@@ -10773,11 +10773,11 @@
       </c>
       <c r="J86" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="16">
         <f t="shared" si="17"/>
@@ -10791,43 +10791,43 @@
       </c>
       <c r="O86" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004085</v>
       </c>
       <c r="P86" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "His reputation nose-dived" ?</v>
       </c>
       <c r="Q86" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R86" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S86" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T86" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004085</v>
+        <v/>
       </c>
       <c r="U86" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "His reputation nose-dived" ?</v>
+        <v/>
       </c>
       <c r="V86" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W86" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X86" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y86" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11049,11 +11049,11 @@
       </c>
       <c r="J89" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="16">
         <f t="shared" si="17"/>
@@ -11067,43 +11067,43 @@
       </c>
       <c r="O89" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004088</v>
+        <v/>
       </c>
       <c r="P89" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "yo-yo dieting" ?</v>
+        <v/>
       </c>
       <c r="Q89" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R89" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S89" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T89" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004088</v>
       </c>
       <c r="U89" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "yo-yo dieting" ?</v>
       </c>
       <c r="V89" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W89" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X89" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y89" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="AA89" s="16"/>
     </row>
-    <row r="90" ht="35" spans="1:27">
+    <row r="90" ht="24" spans="1:27">
       <c r="A90" s="9">
         <v>10</v>
       </c>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="AA92" s="16"/>
     </row>
-    <row r="93" ht="35" spans="1:27">
+    <row r="93" ht="24" spans="1:27">
       <c r="A93" s="9">
         <v>10</v>
       </c>
@@ -11417,11 +11417,11 @@
       </c>
       <c r="J93" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="16">
         <f t="shared" si="17"/>
@@ -11435,43 +11435,43 @@
       </c>
       <c r="O93" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004092</v>
+        <v/>
       </c>
       <c r="P93" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Where the rubber meets the road" ?</v>
+        <v/>
       </c>
       <c r="Q93" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R93" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S93" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T93" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004092</v>
       </c>
       <c r="U93" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Where the rubber meets the road" ?</v>
       </c>
       <c r="V93" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W93" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X93" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y93" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11509,11 +11509,11 @@
       </c>
       <c r="J94" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="16">
         <f t="shared" si="17"/>
@@ -11527,43 +11527,43 @@
       </c>
       <c r="O94" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004093</v>
       </c>
       <c r="P94" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "boomerang kids" ?</v>
       </c>
       <c r="Q94" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R94" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S94" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T94" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004093</v>
+        <v/>
       </c>
       <c r="U94" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "boomerang kids" ?</v>
+        <v/>
       </c>
       <c r="V94" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W94" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X94" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y94" s="16" t="str">
         <f t="shared" si="26"/>
@@ -11601,11 +11601,11 @@
       </c>
       <c r="J95" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="16">
         <f t="shared" si="17"/>
@@ -11619,43 +11619,43 @@
       </c>
       <c r="O95" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004094</v>
       </c>
       <c r="P95" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "helicopter parents" ?</v>
       </c>
       <c r="Q95" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R95" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S95" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T95" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004094</v>
+        <v/>
       </c>
       <c r="U95" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "helicopter parents" ?</v>
+        <v/>
       </c>
       <c r="V95" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W95" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X95" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y95" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12061,11 +12061,11 @@
       </c>
       <c r="J100" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" s="16">
         <f t="shared" si="17"/>
@@ -12079,43 +12079,43 @@
       </c>
       <c r="O100" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004099</v>
       </c>
       <c r="P100" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He peels off. " ?</v>
       </c>
       <c r="Q100" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R100" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S100" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T100" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004099</v>
+        <v/>
       </c>
       <c r="U100" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He peels off. " ?</v>
+        <v/>
       </c>
       <c r="V100" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W100" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X100" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y100" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12521,11 +12521,11 @@
       </c>
       <c r="J105" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="16">
         <f t="shared" si="17"/>
@@ -12539,43 +12539,43 @@
       </c>
       <c r="O105" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004104</v>
       </c>
       <c r="P105" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "a square peg in a round hole" ?</v>
       </c>
       <c r="Q105" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R105" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S105" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T105" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004104</v>
+        <v/>
       </c>
       <c r="U105" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "a square peg in a round hole" ?</v>
+        <v/>
       </c>
       <c r="V105" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W105" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X105" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y105" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12613,11 +12613,11 @@
       </c>
       <c r="J106" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="16">
         <f t="shared" si="17"/>
@@ -12631,43 +12631,43 @@
       </c>
       <c r="O106" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004105</v>
       </c>
       <c r="P106" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I knew him since he was in his diapers" ?</v>
       </c>
       <c r="Q106" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R106" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S106" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T106" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004105</v>
+        <v/>
       </c>
       <c r="U106" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I knew him since he was in his diapers" ?</v>
+        <v/>
       </c>
       <c r="V106" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W106" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X106" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y106" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12797,11 +12797,11 @@
       </c>
       <c r="J108" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="16">
         <f t="shared" si="17"/>
@@ -12815,43 +12815,43 @@
       </c>
       <c r="O108" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L21004107</v>
+        <v/>
       </c>
       <c r="P108" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The police are on his tail" ?</v>
+        <v/>
       </c>
       <c r="Q108" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R108" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S108" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T108" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L31004107</v>
       </c>
       <c r="U108" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The police are on his tail" ?</v>
       </c>
       <c r="V108" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W108" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X108" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y108" s="16" t="str">
         <f t="shared" si="26"/>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="AA108" s="18"/>
     </row>
-    <row r="109" ht="24" spans="1:27">
+    <row r="109" ht="35" spans="1:27">
       <c r="A109" s="9">
         <v>10</v>
       </c>
@@ -12955,7 +12955,7 @@
       </c>
       <c r="AA109" s="18"/>
     </row>
-    <row r="110" ht="35" spans="1:27">
+    <row r="110" ht="47" spans="1:27">
       <c r="A110" s="9">
         <v>10</v>
       </c>
@@ -12981,11 +12981,11 @@
       </c>
       <c r="J110" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" s="16">
         <f t="shared" si="17"/>
@@ -12999,43 +12999,43 @@
       </c>
       <c r="O110" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004109</v>
       </c>
       <c r="P110" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The most important step in diplomacy is the last 3 feet---face-to-face" ?</v>
       </c>
       <c r="Q110" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R110" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S110" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T110" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004109</v>
+        <v/>
       </c>
       <c r="U110" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The most important step in diplomacy is the last 3 feet---face-to-face" ?</v>
+        <v/>
       </c>
       <c r="V110" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W110" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X110" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y110" s="16" t="str">
         <f t="shared" si="26"/>
@@ -13165,11 +13165,11 @@
       </c>
       <c r="J112" s="16">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="16">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" s="16">
         <f t="shared" si="17"/>
@@ -13183,43 +13183,43 @@
       </c>
       <c r="O112" s="16" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L21004111</v>
       </c>
       <c r="P112" s="16" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He is a political jellyfish" ?</v>
       </c>
       <c r="Q112" s="16" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R112" s="16" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S112" s="16" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T112" s="16" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L31004111</v>
+        <v/>
       </c>
       <c r="U112" s="16" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He is a political jellyfish" ?</v>
+        <v/>
       </c>
       <c r="V112" s="16" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W112" s="16" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X112" s="16" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y112" s="16" t="str">
         <f t="shared" si="26"/>
